--- a/henchies.xlsx
+++ b/henchies.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdy26\Documents\GitHub\Mizmaster-S9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07493FA-BDAA-42C4-ACDA-5C2F8384D973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="15330" yWindow="4245" windowWidth="10080" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="모든 헨치" sheetId="1" r:id="rId4"/>
+    <sheet name="모든 헨치" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="2591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5717" uniqueCount="2605">
   <si>
     <t>이름</t>
   </si>
@@ -6640,7 +6649,7 @@
     <t>건스매쉬 (2);뉴윙스톰레이셔 (2)</t>
   </si>
   <si>
-    <t>뉴파이어듀크;라운드비틀</t>
+    <t>뉴파이어듀크;라운드비틀;드라코</t>
   </si>
   <si>
     <t>DJ브라키</t>
@@ -7021,6 +7030,36 @@
     <t>데빌칸 (4)</t>
   </si>
   <si>
+    <t>Dracoo</t>
+  </si>
+  <si>
+    <t>140~165</t>
+  </si>
+  <si>
+    <t>Evo-Draco</t>
+  </si>
+  <si>
+    <t>FireDuke</t>
+  </si>
+  <si>
+    <t>드라꼰</t>
+  </si>
+  <si>
+    <t>Draccon</t>
+  </si>
+  <si>
+    <t>160~185</t>
+  </si>
+  <si>
+    <t>드라꼰.gif</t>
+  </si>
+  <si>
+    <t>InfernoDuke</t>
+  </si>
+  <si>
+    <t>Draka;Serpenka</t>
+  </si>
+  <si>
     <t>미스코</t>
   </si>
   <si>
@@ -7784,28 +7823,53 @@
   </si>
   <si>
     <t>미스키스.gif</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7813,38 +7877,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -8034,36 +8104,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.29"/>
-    <col customWidth="1" min="2" max="2" width="3.14"/>
-    <col customWidth="1" min="3" max="3" width="36.43"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="5" max="5" width="8.14"/>
-    <col customWidth="1" min="6" max="6" width="12.14"/>
-    <col customWidth="1" min="7" max="7" width="11.29"/>
-    <col customWidth="1" min="8" max="8" width="9.29"/>
-    <col customWidth="1" min="9" max="9" width="20.14"/>
-    <col customWidth="1" min="10" max="10" width="19.14"/>
-    <col customWidth="1" min="11" max="11" width="15.14"/>
-    <col customWidth="1" min="12" max="12" width="62.43"/>
-    <col customWidth="1" min="13" max="13" width="10.57"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="62.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8104,7 +8176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -8133,7 +8205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -8168,7 +8240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:13" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -8203,7 +8275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -8229,7 +8301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:13" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -8255,7 +8327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:13" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -8281,7 +8353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -8307,7 +8379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:13" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -8342,7 +8414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -8377,7 +8449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -8412,7 +8484,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:13" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -8447,7 +8519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:13" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -8482,7 +8554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:13" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -8511,7 +8583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:13" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -8546,7 +8618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:13" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -8581,7 +8653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:13" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -8616,7 +8688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
+    <row r="18" spans="1:13" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
@@ -8651,7 +8723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -8686,7 +8758,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:13" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -8715,7 +8787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
+    <row r="21" spans="1:13" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>123</v>
       </c>
@@ -8750,7 +8822,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>130</v>
       </c>
@@ -8776,7 +8848,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
+    <row r="23" spans="1:13" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -8811,7 +8883,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:13" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -8846,7 +8918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:13" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
@@ -8881,7 +8953,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
+    <row r="26" spans="1:13" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -8916,7 +8988,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
+    <row r="27" spans="1:13" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>157</v>
       </c>
@@ -8942,7 +9014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1">
+    <row r="28" spans="1:13" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -8980,7 +9052,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" ht="16.5" customHeight="1">
+    <row r="29" spans="1:13" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
@@ -9006,7 +9078,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1">
+    <row r="30" spans="1:13" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9113,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
+    <row r="31" spans="1:13" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>179</v>
       </c>
@@ -9067,7 +9139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" ht="16.5" customHeight="1">
+    <row r="32" spans="1:13" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -9096,7 +9168,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" ht="16.5" customHeight="1">
+    <row r="33" spans="1:13" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>185</v>
       </c>
@@ -9134,7 +9206,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" ht="16.5" customHeight="1">
+    <row r="34" spans="1:13" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
@@ -9163,10 +9235,10 @@
         <v>197</v>
       </c>
       <c r="M34" s="1">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>198</v>
       </c>
@@ -9192,7 +9264,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" spans="1:13" ht="16.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>202</v>
       </c>
@@ -9230,7 +9302,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
+    <row r="37" spans="1:13" ht="16.5" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>209</v>
       </c>
@@ -9259,7 +9331,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" ht="16.5" customHeight="1">
+    <row r="38" spans="1:13" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>214</v>
       </c>
@@ -9297,7 +9369,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" ht="16.5" customHeight="1">
+    <row r="39" spans="1:13" ht="16.5" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>221</v>
       </c>
@@ -9326,7 +9398,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" ht="16.5" customHeight="1">
+    <row r="40" spans="1:13" ht="16.5" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>226</v>
       </c>
@@ -9364,7 +9436,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" spans="1:13" ht="16.5" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>233</v>
       </c>
@@ -9390,7 +9462,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" spans="1:13" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>236</v>
       </c>
@@ -9428,7 +9500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" ht="16.5" customHeight="1">
+    <row r="43" spans="1:13" ht="16.5" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>243</v>
       </c>
@@ -9463,7 +9535,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
+    <row r="44" spans="1:13" ht="16.5" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>250</v>
       </c>
@@ -9492,7 +9564,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" ht="16.5" customHeight="1">
+    <row r="45" spans="1:13" ht="16.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>254</v>
       </c>
@@ -9521,7 +9593,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" ht="16.5" customHeight="1">
+    <row r="46" spans="1:13" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>257</v>
       </c>
@@ -9547,7 +9619,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="47" ht="16.5" customHeight="1">
+    <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>261</v>
       </c>
@@ -9582,7 +9654,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" spans="1:13" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>268</v>
       </c>
@@ -9617,7 +9689,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" ht="16.5" customHeight="1">
+    <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>275</v>
       </c>
@@ -9646,7 +9718,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" ht="16.5" customHeight="1">
+    <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>280</v>
       </c>
@@ -9684,7 +9756,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
+    <row r="51" spans="1:13" ht="16.5" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>287</v>
       </c>
@@ -9716,7 +9788,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" ht="16.5" customHeight="1">
+    <row r="52" spans="1:13" ht="16.5" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>291</v>
       </c>
@@ -9748,7 +9820,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" ht="16.5" customHeight="1">
+    <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>296</v>
       </c>
@@ -9780,7 +9852,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>301</v>
       </c>
@@ -9815,7 +9887,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" ht="16.5" customHeight="1">
+    <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>308</v>
       </c>
@@ -9850,7 +9922,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="56" ht="16.5" customHeight="1">
+    <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>256</v>
       </c>
@@ -9885,7 +9957,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" ht="16.5" customHeight="1">
+    <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>286</v>
       </c>
@@ -9920,7 +9992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" ht="16.5" customHeight="1">
+    <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>324</v>
       </c>
@@ -9952,7 +10024,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="59" ht="16.5" customHeight="1">
+    <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>279</v>
       </c>
@@ -9987,7 +10059,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" ht="16.5" customHeight="1">
+    <row r="60" spans="1:13" ht="16.5" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>156</v>
       </c>
@@ -10022,7 +10094,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" ht="16.5" customHeight="1">
+    <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>338</v>
       </c>
@@ -10051,10 +10123,10 @@
         <v>225</v>
       </c>
       <c r="M61" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>342</v>
       </c>
@@ -10080,7 +10152,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
+    <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>345</v>
       </c>
@@ -10112,7 +10184,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>314</v>
       </c>
@@ -10144,7 +10216,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" ht="16.5" customHeight="1">
+    <row r="65" spans="1:12" ht="16.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>225</v>
       </c>
@@ -10179,7 +10251,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" spans="1:12" ht="16.5" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>323</v>
       </c>
@@ -10214,7 +10286,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="67" ht="16.5" customHeight="1">
+    <row r="67" spans="1:12" ht="16.5" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>367</v>
       </c>
@@ -10249,7 +10321,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" ht="16.5" customHeight="1">
+    <row r="68" spans="1:12" ht="16.5" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>373</v>
       </c>
@@ -10284,7 +10356,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="69" ht="16.5" customHeight="1">
+    <row r="69" spans="1:12" ht="16.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>379</v>
       </c>
@@ -10319,7 +10391,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" ht="16.5" customHeight="1">
+    <row r="70" spans="1:12" ht="16.5" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>385</v>
       </c>
@@ -10348,7 +10420,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
+    <row r="71" spans="1:12" ht="16.5" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>389</v>
       </c>
@@ -10383,7 +10455,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" ht="16.5" customHeight="1">
+    <row r="72" spans="1:12" ht="16.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>396</v>
       </c>
@@ -10418,7 +10490,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="73" ht="16.5" customHeight="1">
+    <row r="73" spans="1:12" ht="16.5" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>403</v>
       </c>
@@ -10453,7 +10525,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="74" ht="16.5" customHeight="1">
+    <row r="74" spans="1:12" ht="16.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>388</v>
       </c>
@@ -10485,7 +10557,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" ht="16.5" customHeight="1">
+    <row r="75" spans="1:12" ht="16.5" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>412</v>
       </c>
@@ -10514,7 +10586,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" ht="16.5" customHeight="1">
+    <row r="76" spans="1:12" ht="16.5" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>417</v>
       </c>
@@ -10546,7 +10618,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" ht="16.5" customHeight="1">
+    <row r="77" spans="1:12" ht="16.5" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>423</v>
       </c>
@@ -10572,7 +10644,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="78" ht="16.5" customHeight="1">
+    <row r="78" spans="1:12" ht="16.5" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>426</v>
       </c>
@@ -10601,7 +10673,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="79" ht="16.5" customHeight="1">
+    <row r="79" spans="1:12" ht="16.5" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>430</v>
       </c>
@@ -10633,7 +10705,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="80" ht="16.5" customHeight="1">
+    <row r="80" spans="1:12" ht="16.5" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>384</v>
       </c>
@@ -10665,7 +10737,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="81" ht="16.5" customHeight="1">
+    <row r="81" spans="1:12" ht="16.5" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>440</v>
       </c>
@@ -10694,7 +10766,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="82" ht="16.5" customHeight="1">
+    <row r="82" spans="1:12" ht="16.5" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>443</v>
       </c>
@@ -10720,7 +10792,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="83" ht="16.5" customHeight="1">
+    <row r="83" spans="1:12" ht="16.5" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>442</v>
       </c>
@@ -10752,10 +10824,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1">
+    <row r="84" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="85" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="86" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="87" spans="1:12" ht="16.5" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>449</v>
       </c>
@@ -10787,7 +10859,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="88" ht="16.5" customHeight="1">
+    <row r="88" spans="1:12" ht="16.5" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>455</v>
       </c>
@@ -10816,7 +10888,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="89" ht="16.5" customHeight="1">
+    <row r="89" spans="1:12" ht="16.5" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>459</v>
       </c>
@@ -10851,7 +10923,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="90" ht="16.5" customHeight="1">
+    <row r="90" spans="1:12" ht="16.5" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>463</v>
       </c>
@@ -10886,7 +10958,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="91" ht="16.5" customHeight="1">
+    <row r="91" spans="1:12" ht="16.5" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>469</v>
       </c>
@@ -10921,7 +10993,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="92" ht="16.5" customHeight="1">
+    <row r="92" spans="1:12" ht="16.5" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>474</v>
       </c>
@@ -10956,7 +11028,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="93" ht="16.5" customHeight="1">
+    <row r="93" spans="1:12" ht="16.5" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>479</v>
       </c>
@@ -10991,7 +11063,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="94" ht="16.5" customHeight="1">
+    <row r="94" spans="1:12" ht="16.5" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>484</v>
       </c>
@@ -11026,7 +11098,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="95" ht="16.5" customHeight="1">
+    <row r="95" spans="1:12" ht="16.5" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>490</v>
       </c>
@@ -11061,7 +11133,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="96" ht="16.5" customHeight="1">
+    <row r="96" spans="1:12" ht="16.5" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>496</v>
       </c>
@@ -11096,7 +11168,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="97" ht="16.5" customHeight="1">
+    <row r="97" spans="1:13" ht="16.5" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>502</v>
       </c>
@@ -11131,7 +11203,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" ht="16.5" customHeight="1">
+    <row r="98" spans="1:13" ht="16.5" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>508</v>
       </c>
@@ -11166,7 +11238,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="99" ht="16.5" customHeight="1">
+    <row r="99" spans="1:13" ht="16.5" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>514</v>
       </c>
@@ -11201,7 +11273,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="100" ht="16.5" customHeight="1">
+    <row r="100" spans="1:13" ht="16.5" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>520</v>
       </c>
@@ -11227,7 +11299,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="101" ht="16.5" customHeight="1">
+    <row r="101" spans="1:13" ht="16.5" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>523</v>
       </c>
@@ -11262,7 +11334,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="102" ht="16.5" customHeight="1">
+    <row r="102" spans="1:13" ht="16.5" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>530</v>
       </c>
@@ -11297,7 +11369,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="103" ht="16.5" customHeight="1">
+    <row r="103" spans="1:13" ht="16.5" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>537</v>
       </c>
@@ -11332,7 +11404,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="104" ht="16.5" customHeight="1">
+    <row r="104" spans="1:13" ht="16.5" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>544</v>
       </c>
@@ -11367,7 +11439,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="105" ht="16.5" customHeight="1">
+    <row r="105" spans="1:13" ht="16.5" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>550</v>
       </c>
@@ -11402,7 +11474,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="106" ht="16.5" customHeight="1">
+    <row r="106" spans="1:13" ht="16.5" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>557</v>
       </c>
@@ -11437,7 +11509,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="107" ht="16.5" customHeight="1">
+    <row r="107" spans="1:13" ht="16.5" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>520</v>
       </c>
@@ -11463,7 +11535,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" ht="16.5" customHeight="1">
+    <row r="108" spans="1:13" ht="16.5" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>564</v>
       </c>
@@ -11492,7 +11564,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="109" ht="16.5" customHeight="1">
+    <row r="109" spans="1:13" ht="16.5" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>569</v>
       </c>
@@ -11521,7 +11593,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="110" ht="16.5" customHeight="1">
+    <row r="110" spans="1:13" ht="16.5" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>573</v>
       </c>
@@ -11547,7 +11619,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="111" ht="16.5" customHeight="1">
+    <row r="111" spans="1:13" ht="16.5" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>575</v>
       </c>
@@ -11576,7 +11648,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="112" ht="16.5" customHeight="1">
+    <row r="112" spans="1:13" ht="16.5" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>578</v>
       </c>
@@ -11614,7 +11686,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" ht="16.5" customHeight="1">
+    <row r="113" spans="1:13" ht="16.5" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>585</v>
       </c>
@@ -11640,7 +11712,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="114" ht="16.5" customHeight="1">
+    <row r="114" spans="1:13" ht="16.5" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>587</v>
       </c>
@@ -11669,7 +11741,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="115" ht="16.5" customHeight="1">
+    <row r="115" spans="1:13" ht="16.5" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>591</v>
       </c>
@@ -11707,7 +11779,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="116" ht="16.5" customHeight="1">
+    <row r="116" spans="1:13" ht="16.5" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>520</v>
       </c>
@@ -11733,7 +11805,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" ht="16.5" customHeight="1">
+    <row r="117" spans="1:13" ht="16.5" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>599</v>
       </c>
@@ -11762,7 +11834,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="118" ht="16.5" customHeight="1">
+    <row r="118" spans="1:13" ht="16.5" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>603</v>
       </c>
@@ -11791,7 +11863,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="119" ht="16.5" customHeight="1">
+    <row r="119" spans="1:13" ht="16.5" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>608</v>
       </c>
@@ -11826,10 +11898,10 @@
         <v>614</v>
       </c>
       <c r="M119" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="16.5" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>590</v>
       </c>
@@ -11864,7 +11936,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="121" ht="16.5" customHeight="1">
+    <row r="121" spans="1:13" ht="16.5" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>619</v>
       </c>
@@ -11890,7 +11962,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="122" ht="16.5" customHeight="1">
+    <row r="122" spans="1:13" ht="16.5" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>621</v>
       </c>
@@ -11919,7 +11991,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="123" ht="16.5" customHeight="1">
+    <row r="123" spans="1:13" ht="16.5" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>625</v>
       </c>
@@ -11951,7 +12023,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="124" ht="16.5" customHeight="1">
+    <row r="124" spans="1:13" ht="16.5" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>630</v>
       </c>
@@ -11986,7 +12058,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="125" ht="16.5" customHeight="1">
+    <row r="125" spans="1:13" ht="16.5" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>637</v>
       </c>
@@ -12015,7 +12087,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="126" ht="16.5" customHeight="1">
+    <row r="126" spans="1:13" ht="16.5" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>640</v>
       </c>
@@ -12050,7 +12122,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="127" ht="16.5" customHeight="1">
+    <row r="127" spans="1:13" ht="16.5" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>646</v>
       </c>
@@ -12085,7 +12157,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="128" ht="16.5" customHeight="1">
+    <row r="128" spans="1:13" ht="16.5" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>652</v>
       </c>
@@ -12117,7 +12189,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="129" ht="16.5" customHeight="1">
+    <row r="129" spans="1:12" ht="16.5" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>656</v>
       </c>
@@ -12143,7 +12215,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="130" ht="16.5" customHeight="1">
+    <row r="130" spans="1:12" ht="16.5" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>659</v>
       </c>
@@ -12178,7 +12250,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="131" ht="16.5" customHeight="1">
+    <row r="131" spans="1:12" ht="16.5" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>577</v>
       </c>
@@ -12213,7 +12285,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="132" ht="16.5" customHeight="1">
+    <row r="132" spans="1:12" ht="16.5" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>670</v>
       </c>
@@ -12245,7 +12317,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="133" ht="16.5" customHeight="1">
+    <row r="133" spans="1:12" ht="16.5" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>675</v>
       </c>
@@ -12277,7 +12349,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="134" ht="16.5" customHeight="1">
+    <row r="134" spans="1:12" ht="16.5" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>651</v>
       </c>
@@ -12309,7 +12381,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="135" ht="16.5" customHeight="1">
+    <row r="135" spans="1:12" ht="16.5" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>618</v>
       </c>
@@ -12341,7 +12413,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="136" ht="16.5" customHeight="1">
+    <row r="136" spans="1:12" ht="16.5" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>687</v>
       </c>
@@ -12370,7 +12442,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="137" ht="16.5" customHeight="1">
+    <row r="137" spans="1:12" ht="16.5" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>690</v>
       </c>
@@ -12399,7 +12471,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="138" ht="16.5" customHeight="1">
+    <row r="138" spans="1:12" ht="16.5" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>669</v>
       </c>
@@ -12431,7 +12503,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="139" ht="16.5" customHeight="1">
+    <row r="139" spans="1:12" ht="16.5" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>699</v>
       </c>
@@ -12460,7 +12532,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="140" ht="16.5" customHeight="1">
+    <row r="140" spans="1:12" ht="16.5" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>704</v>
       </c>
@@ -12492,7 +12564,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="141" ht="16.5" customHeight="1">
+    <row r="141" spans="1:12" ht="16.5" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>708</v>
       </c>
@@ -12521,7 +12593,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="142" ht="16.5" customHeight="1">
+    <row r="142" spans="1:12" ht="16.5" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>713</v>
       </c>
@@ -12547,7 +12619,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="143" ht="16.5" customHeight="1">
+    <row r="143" spans="1:12" ht="16.5" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>717</v>
       </c>
@@ -12582,7 +12654,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="144" ht="16.5" customHeight="1">
+    <row r="144" spans="1:12" ht="16.5" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>724</v>
       </c>
@@ -12608,7 +12680,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="145" ht="16.5" customHeight="1">
+    <row r="145" spans="1:13" ht="16.5" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>726</v>
       </c>
@@ -12643,7 +12715,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="146" ht="16.5" customHeight="1">
+    <row r="146" spans="1:13" ht="16.5" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>731</v>
       </c>
@@ -12678,7 +12750,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="147" ht="16.5" customHeight="1">
+    <row r="147" spans="1:13" ht="16.5" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>738</v>
       </c>
@@ -12713,10 +12785,10 @@
         <v>743</v>
       </c>
       <c r="M147" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="16.5" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>744</v>
       </c>
@@ -12751,7 +12823,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="149" ht="16.5" customHeight="1">
+    <row r="149" spans="1:13" ht="16.5" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>749</v>
       </c>
@@ -12783,7 +12855,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="150" ht="16.5" customHeight="1">
+    <row r="150" spans="1:13" ht="16.5" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>754</v>
       </c>
@@ -12812,7 +12884,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="151" ht="16.5" customHeight="1">
+    <row r="151" spans="1:13" ht="16.5" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>758</v>
       </c>
@@ -12847,7 +12919,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="152" ht="16.5" customHeight="1">
+    <row r="152" spans="1:13" ht="16.5" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>764</v>
       </c>
@@ -12873,7 +12945,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="153" ht="16.5" customHeight="1">
+    <row r="153" spans="1:13" ht="16.5" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>402</v>
       </c>
@@ -12908,7 +12980,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="154" ht="16.5" customHeight="1">
+    <row r="154" spans="1:13" ht="16.5" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>771</v>
       </c>
@@ -12937,7 +13009,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="155" ht="16.5" customHeight="1">
+    <row r="155" spans="1:13" ht="16.5" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>773</v>
       </c>
@@ -12969,7 +13041,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="156" ht="16.5" customHeight="1">
+    <row r="156" spans="1:13" ht="16.5" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>777</v>
       </c>
@@ -13001,7 +13073,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="157" ht="16.5" customHeight="1">
+    <row r="157" spans="1:13" ht="16.5" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>783</v>
       </c>
@@ -13033,7 +13105,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="158" ht="16.5" customHeight="1">
+    <row r="158" spans="1:13" ht="16.5" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>789</v>
       </c>
@@ -13059,7 +13131,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="159" ht="16.5" customHeight="1">
+    <row r="159" spans="1:13" ht="16.5" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>793</v>
       </c>
@@ -13085,7 +13157,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="160" ht="16.5" customHeight="1">
+    <row r="160" spans="1:13" ht="16.5" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>797</v>
       </c>
@@ -13117,9 +13189,9 @@
         <v>801</v>
       </c>
     </row>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1">
+    <row r="161" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="162" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="163" spans="1:12" ht="16.5" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>802</v>
       </c>
@@ -13148,7 +13220,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="164" ht="16.5" customHeight="1">
+    <row r="164" spans="1:12" ht="16.5" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>807</v>
       </c>
@@ -13177,7 +13249,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="165" ht="16.5" customHeight="1">
+    <row r="165" spans="1:12" ht="16.5" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>811</v>
       </c>
@@ -13212,7 +13284,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="166" ht="16.5" customHeight="1">
+    <row r="166" spans="1:12" ht="16.5" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>816</v>
       </c>
@@ -13247,7 +13319,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="167" ht="16.5" customHeight="1">
+    <row r="167" spans="1:12" ht="16.5" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>821</v>
       </c>
@@ -13282,7 +13354,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="168" ht="16.5" customHeight="1">
+    <row r="168" spans="1:12" ht="16.5" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>826</v>
       </c>
@@ -13317,7 +13389,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="169" ht="16.5" customHeight="1">
+    <row r="169" spans="1:12" ht="16.5" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>831</v>
       </c>
@@ -13352,7 +13424,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="170" ht="16.5" customHeight="1">
+    <row r="170" spans="1:12" ht="16.5" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>836</v>
       </c>
@@ -13387,7 +13459,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="171" ht="16.5" customHeight="1">
+    <row r="171" spans="1:12" ht="16.5" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>841</v>
       </c>
@@ -13422,7 +13494,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="172" ht="16.5" customHeight="1">
+    <row r="172" spans="1:12" ht="16.5" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>846</v>
       </c>
@@ -13457,7 +13529,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="173" ht="16.5" customHeight="1">
+    <row r="173" spans="1:12" ht="16.5" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>851</v>
       </c>
@@ -13492,7 +13564,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="174" ht="16.5" customHeight="1">
+    <row r="174" spans="1:12" ht="16.5" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>856</v>
       </c>
@@ -13527,7 +13599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" ht="16.5" customHeight="1">
+    <row r="175" spans="1:12" ht="16.5" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>860</v>
       </c>
@@ -13562,7 +13634,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="176" ht="16.5" customHeight="1">
+    <row r="176" spans="1:12" ht="16.5" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>865</v>
       </c>
@@ -13597,7 +13669,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="177" ht="16.5" customHeight="1">
+    <row r="177" spans="1:12" ht="16.5" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>872</v>
       </c>
@@ -13632,7 +13704,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="178" ht="16.5" customHeight="1">
+    <row r="178" spans="1:12" ht="16.5" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>878</v>
       </c>
@@ -13667,7 +13739,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="179" ht="16.5" customHeight="1">
+    <row r="179" spans="1:12" ht="16.5" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>885</v>
       </c>
@@ -13702,7 +13774,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="180" ht="16.5" customHeight="1">
+    <row r="180" spans="1:12" ht="16.5" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>890</v>
       </c>
@@ -13737,7 +13809,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="181" ht="16.5" customHeight="1">
+    <row r="181" spans="1:12" ht="16.5" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>897</v>
       </c>
@@ -13768,11 +13840,11 @@
       <c r="K181" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="L181" s="2" t="s">
+      <c r="L181" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="182" ht="16.5" customHeight="1">
+    <row r="182" spans="1:12" ht="16.5" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>903</v>
       </c>
@@ -13798,7 +13870,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="183" ht="16.5" customHeight="1">
+    <row r="183" spans="1:12" ht="16.5" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>907</v>
       </c>
@@ -13827,7 +13899,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="184" ht="16.5" customHeight="1">
+    <row r="184" spans="1:12" ht="16.5" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>902</v>
       </c>
@@ -13862,7 +13934,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="185" ht="16.5" customHeight="1">
+    <row r="185" spans="1:12" ht="16.5" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>916</v>
       </c>
@@ -13891,12 +13963,12 @@
         <v>919</v>
       </c>
     </row>
-    <row r="186" ht="16.5" customHeight="1">
+    <row r="186" spans="1:12" ht="16.5" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>920</v>
       </c>
       <c r="C186" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>15</v>
@@ -13917,7 +13989,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="187" ht="16.5" customHeight="1">
+    <row r="187" spans="1:12" ht="16.5" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>922</v>
       </c>
@@ -13946,7 +14018,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="188" ht="16.5" customHeight="1">
+    <row r="188" spans="1:12" ht="16.5" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>927</v>
       </c>
@@ -13981,7 +14053,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="189" ht="16.5" customHeight="1">
+    <row r="189" spans="1:12" ht="16.5" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>933</v>
       </c>
@@ -14010,7 +14082,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="190" ht="16.5" customHeight="1">
+    <row r="190" spans="1:12" ht="16.5" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>935</v>
       </c>
@@ -14045,7 +14117,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" ht="16.5" customHeight="1">
+    <row r="191" spans="1:12" ht="16.5" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>940</v>
       </c>
@@ -14080,7 +14152,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="192" ht="16.5" customHeight="1">
+    <row r="192" spans="1:12" ht="16.5" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>947</v>
       </c>
@@ -14115,12 +14187,12 @@
         <v>952</v>
       </c>
     </row>
-    <row r="193" ht="16.5" customHeight="1">
+    <row r="193" spans="1:12" ht="16.5" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>953</v>
       </c>
       <c r="C193" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>119</v>
@@ -14147,7 +14219,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="194" ht="16.5" customHeight="1">
+    <row r="194" spans="1:12" ht="16.5" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>957</v>
       </c>
@@ -14182,7 +14254,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="195" ht="16.5" customHeight="1">
+    <row r="195" spans="1:12" ht="16.5" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>962</v>
       </c>
@@ -14217,7 +14289,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="196" ht="16.5" customHeight="1">
+    <row r="196" spans="1:12" ht="16.5" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>968</v>
       </c>
@@ -14252,7 +14324,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="197" ht="16.5" customHeight="1">
+    <row r="197" spans="1:12" ht="16.5" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>973</v>
       </c>
@@ -14287,7 +14359,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="198" ht="16.5" customHeight="1">
+    <row r="198" spans="1:12" ht="16.5" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>979</v>
       </c>
@@ -14319,7 +14391,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="199" ht="16.5" customHeight="1">
+    <row r="199" spans="1:12" ht="16.5" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>984</v>
       </c>
@@ -14357,7 +14429,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="200" ht="16.5" customHeight="1">
+    <row r="200" spans="1:12" ht="16.5" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>645</v>
       </c>
@@ -14389,7 +14461,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="201" ht="16.5" customHeight="1">
+    <row r="201" spans="1:12" ht="16.5" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>995</v>
       </c>
@@ -14421,7 +14493,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="202" ht="16.5" customHeight="1">
+    <row r="202" spans="1:12" ht="16.5" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>967</v>
       </c>
@@ -14453,7 +14525,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="203" ht="16.5" customHeight="1">
+    <row r="203" spans="1:12" ht="16.5" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>1004</v>
       </c>
@@ -14488,7 +14560,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="204" ht="16.5" customHeight="1">
+    <row r="204" spans="1:12" ht="16.5" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>1010</v>
       </c>
@@ -14523,7 +14595,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="205" ht="16.5" customHeight="1">
+    <row r="205" spans="1:12" ht="16.5" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>1015</v>
       </c>
@@ -14555,7 +14627,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="206" ht="16.5" customHeight="1">
+    <row r="206" spans="1:12" ht="16.5" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>1019</v>
       </c>
@@ -14587,7 +14659,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="207" ht="16.5" customHeight="1">
+    <row r="207" spans="1:12" ht="16.5" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>1022</v>
       </c>
@@ -14622,7 +14694,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="208" ht="16.5" customHeight="1">
+    <row r="208" spans="1:12" ht="16.5" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>1027</v>
       </c>
@@ -14657,7 +14729,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="209" ht="16.5" customHeight="1">
+    <row r="209" spans="1:12" ht="16.5" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>1032</v>
       </c>
@@ -14692,7 +14764,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="210" ht="16.5" customHeight="1">
+    <row r="210" spans="1:12" ht="16.5" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>1031</v>
       </c>
@@ -14727,7 +14799,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="211" ht="16.5" customHeight="1">
+    <row r="211" spans="1:12" ht="16.5" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>1043</v>
       </c>
@@ -14762,7 +14834,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="212" ht="16.5" customHeight="1">
+    <row r="212" spans="1:12" ht="16.5" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>1047</v>
       </c>
@@ -14788,7 +14860,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="213" ht="16.5" customHeight="1">
+    <row r="213" spans="1:12" ht="16.5" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>1051</v>
       </c>
@@ -14820,7 +14892,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="214" ht="16.5" customHeight="1">
+    <row r="214" spans="1:12" ht="16.5" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>1055</v>
       </c>
@@ -14852,7 +14924,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="215" ht="16.5" customHeight="1">
+    <row r="215" spans="1:12" ht="16.5" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>1059</v>
       </c>
@@ -14881,7 +14953,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="216" ht="16.5" customHeight="1">
+    <row r="216" spans="1:12" ht="16.5" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>1063</v>
       </c>
@@ -14913,7 +14985,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="217" ht="16.5" customHeight="1">
+    <row r="217" spans="1:12" ht="16.5" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>1068</v>
       </c>
@@ -14939,7 +15011,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="218" ht="16.5" customHeight="1">
+    <row r="218" spans="1:12" ht="16.5" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14971,7 +15043,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="219" ht="16.5" customHeight="1">
+    <row r="219" spans="1:12" ht="16.5" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15000,7 +15072,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="220" ht="16.5" customHeight="1">
+    <row r="220" spans="1:12" ht="16.5" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>1077</v>
       </c>
@@ -15032,7 +15104,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="221" ht="16.5" customHeight="1">
+    <row r="221" spans="1:12" ht="16.5" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>737</v>
       </c>
@@ -15067,7 +15139,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="222" ht="16.5" customHeight="1">
+    <row r="222" spans="1:12" ht="16.5" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>1086</v>
       </c>
@@ -15093,7 +15165,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="223" ht="16.5" customHeight="1">
+    <row r="223" spans="1:12" ht="16.5" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>1085</v>
       </c>
@@ -15125,7 +15197,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="224" ht="16.5" customHeight="1">
+    <row r="224" spans="1:12" ht="16.5" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>1095</v>
       </c>
@@ -15151,7 +15223,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="225" ht="16.5" customHeight="1">
+    <row r="225" spans="1:12" ht="16.5" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>1098</v>
       </c>
@@ -15183,9 +15255,9 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1">
+    <row r="226" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="227" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="228" spans="1:12" ht="16.5" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>1103</v>
       </c>
@@ -15214,7 +15286,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="229" ht="16.5" customHeight="1">
+    <row r="229" spans="1:12" ht="16.5" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>1107</v>
       </c>
@@ -15240,7 +15312,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="230" ht="16.5" customHeight="1">
+    <row r="230" spans="1:12" ht="16.5" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>1110</v>
       </c>
@@ -15275,7 +15347,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="231" ht="16.5" customHeight="1">
+    <row r="231" spans="1:12" ht="16.5" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15310,7 +15382,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="232" ht="16.5" customHeight="1">
+    <row r="232" spans="1:12" ht="16.5" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>1119</v>
       </c>
@@ -15345,7 +15417,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="233" ht="16.5" customHeight="1">
+    <row r="233" spans="1:12" ht="16.5" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>1122</v>
       </c>
@@ -15380,7 +15452,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="234" ht="16.5" customHeight="1">
+    <row r="234" spans="1:12" ht="16.5" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>1127</v>
       </c>
@@ -15415,7 +15487,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="235" ht="16.5" customHeight="1">
+    <row r="235" spans="1:12" ht="16.5" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>1132</v>
       </c>
@@ -15450,7 +15522,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="236" ht="16.5" customHeight="1">
+    <row r="236" spans="1:12" ht="16.5" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>1138</v>
       </c>
@@ -15485,7 +15557,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="237" ht="16.5" customHeight="1">
+    <row r="237" spans="1:12" ht="16.5" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>1143</v>
       </c>
@@ -15520,7 +15592,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="238" ht="16.5" customHeight="1">
+    <row r="238" spans="1:12" ht="16.5" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>1150</v>
       </c>
@@ -15555,7 +15627,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="239" ht="16.5" customHeight="1">
+    <row r="239" spans="1:12" ht="16.5" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>1154</v>
       </c>
@@ -15590,7 +15662,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="240" ht="16.5" customHeight="1">
+    <row r="240" spans="1:12" ht="16.5" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>1160</v>
       </c>
@@ -15625,7 +15697,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="241" ht="16.5" customHeight="1">
+    <row r="241" spans="1:13" ht="16.5" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>1165</v>
       </c>
@@ -15660,7 +15732,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="242" ht="16.5" customHeight="1">
+    <row r="242" spans="1:13" ht="16.5" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>1172</v>
       </c>
@@ -15689,7 +15761,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="243" ht="16.5" customHeight="1">
+    <row r="243" spans="1:13" ht="16.5" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>1177</v>
       </c>
@@ -15715,7 +15787,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="244" ht="16.5" customHeight="1">
+    <row r="244" spans="1:13" ht="16.5" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15750,7 +15822,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="245" ht="16.5" customHeight="1">
+    <row r="245" spans="1:13" ht="16.5" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>1184</v>
       </c>
@@ -15785,7 +15857,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="246" ht="16.5" customHeight="1">
+    <row r="246" spans="1:13" ht="16.5" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>1190</v>
       </c>
@@ -15814,7 +15886,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="247" ht="16.5" customHeight="1">
+    <row r="247" spans="1:13" ht="16.5" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>1195</v>
       </c>
@@ -15849,7 +15921,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="248" ht="16.5" customHeight="1">
+    <row r="248" spans="1:13" ht="16.5" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>1200</v>
       </c>
@@ -15884,7 +15956,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="249" ht="16.5" customHeight="1">
+    <row r="249" spans="1:13" ht="16.5" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>1207</v>
       </c>
@@ -15901,7 +15973,7 @@
         <v>1202</v>
       </c>
       <c r="G249" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>1104</v>
@@ -15919,7 +15991,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="250" ht="16.5" customHeight="1">
+    <row r="250" spans="1:13" ht="16.5" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>1212</v>
       </c>
@@ -15954,7 +16026,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="251" ht="16.5" customHeight="1">
+    <row r="251" spans="1:13" ht="16.5" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>1218</v>
       </c>
@@ -15989,7 +16061,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="252" ht="16.5" customHeight="1">
+    <row r="252" spans="1:13" ht="16.5" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>1223</v>
       </c>
@@ -16021,7 +16093,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="253" ht="16.5" customHeight="1">
+    <row r="253" spans="1:13" ht="16.5" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>1229</v>
       </c>
@@ -16056,7 +16128,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="254" ht="16.5" customHeight="1">
+    <row r="254" spans="1:13" ht="16.5" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>1236</v>
       </c>
@@ -16085,7 +16157,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="255" ht="16.5" customHeight="1">
+    <row r="255" spans="1:13" ht="16.5" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>1239</v>
       </c>
@@ -16114,7 +16186,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="256" ht="16.5" customHeight="1">
+    <row r="256" spans="1:13" ht="16.5" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>1244</v>
       </c>
@@ -16140,7 +16212,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="257" ht="16.5" customHeight="1">
+    <row r="257" spans="1:13" ht="16.5" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>1247</v>
       </c>
@@ -16169,7 +16241,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="258" ht="16.5" customHeight="1">
+    <row r="258" spans="1:13" ht="16.5" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>1251</v>
       </c>
@@ -16195,7 +16267,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="259" ht="16.5" customHeight="1">
+    <row r="259" spans="1:13" ht="16.5" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>1222</v>
       </c>
@@ -16230,7 +16302,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="260" ht="16.5" customHeight="1">
+    <row r="260" spans="1:13" ht="16.5" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>1257</v>
       </c>
@@ -16259,7 +16331,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="261" ht="16.5" customHeight="1">
+    <row r="261" spans="1:13" ht="16.5" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>1262</v>
       </c>
@@ -16294,7 +16366,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="262" ht="16.5" customHeight="1">
+    <row r="262" spans="1:13" ht="16.5" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>1267</v>
       </c>
@@ -16329,10 +16401,10 @@
         <v>1272</v>
       </c>
       <c r="M262" s="1">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="263" ht="16.5" customHeight="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="16.5" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>1273</v>
       </c>
@@ -16367,7 +16439,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="264" ht="16.5" customHeight="1">
+    <row r="264" spans="1:13" ht="16.5" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>1279</v>
       </c>
@@ -16402,7 +16474,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="265" ht="16.5" customHeight="1">
+    <row r="265" spans="1:13" ht="16.5" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>1285</v>
       </c>
@@ -16437,7 +16509,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="266" ht="16.5" customHeight="1">
+    <row r="266" spans="1:13" ht="16.5" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>1290</v>
       </c>
@@ -16472,7 +16544,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="267" ht="16.5" customHeight="1">
+    <row r="267" spans="1:13" ht="16.5" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>1294</v>
       </c>
@@ -16504,7 +16576,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="268" ht="16.5" customHeight="1">
+    <row r="268" spans="1:13" ht="16.5" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>1298</v>
       </c>
@@ -16533,7 +16605,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="269" ht="16.5" customHeight="1">
+    <row r="269" spans="1:13" ht="16.5" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>1250</v>
       </c>
@@ -16568,7 +16640,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="270" ht="16.5" customHeight="1">
+    <row r="270" spans="1:13" ht="16.5" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>1306</v>
       </c>
@@ -16603,7 +16675,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="271" ht="16.5" customHeight="1">
+    <row r="271" spans="1:13" ht="16.5" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>1311</v>
       </c>
@@ -16638,7 +16710,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="272" ht="16.5" customHeight="1">
+    <row r="272" spans="1:13" ht="16.5" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>1317</v>
       </c>
@@ -16672,11 +16744,11 @@
       <c r="L272" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="M272" s="2">
+      <c r="M272" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="273" ht="16.5" customHeight="1">
+    <row r="273" spans="1:13" ht="16.5" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>1324</v>
       </c>
@@ -16711,7 +16783,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="274" ht="16.5" customHeight="1">
+    <row r="274" spans="1:13" ht="16.5" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>1329</v>
       </c>
@@ -16746,7 +16818,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="275" ht="16.5" customHeight="1">
+    <row r="275" spans="1:13" ht="16.5" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>1333</v>
       </c>
@@ -16778,7 +16850,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="276" ht="16.5" customHeight="1">
+    <row r="276" spans="1:13" ht="16.5" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>1336</v>
       </c>
@@ -16813,7 +16885,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="277" ht="16.5" customHeight="1">
+    <row r="277" spans="1:13" ht="16.5" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>1342</v>
       </c>
@@ -16848,7 +16920,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="278" ht="16.5" customHeight="1">
+    <row r="278" spans="1:13" ht="16.5" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16874,7 +16946,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="279" ht="16.5" customHeight="1">
+    <row r="279" spans="1:13" ht="16.5" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>1352</v>
       </c>
@@ -16902,11 +16974,11 @@
       <c r="L279" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M279" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="280" ht="16.5" customHeight="1">
+      <c r="M279" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="16.5" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>1332</v>
       </c>
@@ -16941,7 +17013,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="281" ht="16.5" customHeight="1">
+    <row r="281" spans="1:13" ht="16.5" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>1360</v>
       </c>
@@ -16976,7 +17048,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="282" ht="16.5" customHeight="1">
+    <row r="282" spans="1:13" ht="16.5" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>1366</v>
       </c>
@@ -17005,7 +17077,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="283" ht="16.5" customHeight="1">
+    <row r="283" spans="1:13" ht="16.5" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>1368</v>
       </c>
@@ -17040,7 +17112,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="284" ht="16.5" customHeight="1">
+    <row r="284" spans="1:13" ht="16.5" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>1371</v>
       </c>
@@ -17075,7 +17147,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="285" ht="16.5" customHeight="1">
+    <row r="285" spans="1:13" ht="16.5" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>1376</v>
       </c>
@@ -17101,7 +17173,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="286" ht="16.5" customHeight="1">
+    <row r="286" spans="1:13" ht="16.5" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>1379</v>
       </c>
@@ -17133,7 +17205,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="287" ht="16.5" customHeight="1">
+    <row r="287" spans="1:13" ht="16.5" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>1384</v>
       </c>
@@ -17168,7 +17240,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="288" ht="16.5" customHeight="1">
+    <row r="288" spans="1:13" ht="16.5" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>1014</v>
       </c>
@@ -17203,7 +17275,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="289" ht="16.5" customHeight="1">
+    <row r="289" spans="1:12" ht="16.5" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>1365</v>
       </c>
@@ -17238,7 +17310,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="290" ht="16.5" customHeight="1">
+    <row r="290" spans="1:12" ht="16.5" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>1399</v>
       </c>
@@ -17270,7 +17342,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="291" ht="16.5" customHeight="1">
+    <row r="291" spans="1:12" ht="16.5" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>360</v>
       </c>
@@ -17305,7 +17377,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="292" ht="16.5" customHeight="1">
+    <row r="292" spans="1:12" ht="16.5" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>1407</v>
       </c>
@@ -17337,7 +17409,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="293" ht="16.5" customHeight="1">
+    <row r="293" spans="1:12" ht="16.5" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>723</v>
       </c>
@@ -17372,7 +17444,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="294" ht="16.5" customHeight="1">
+    <row r="294" spans="1:12" ht="16.5" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>1415</v>
       </c>
@@ -17401,7 +17473,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="295" ht="16.5" customHeight="1">
+    <row r="295" spans="1:12" ht="16.5" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>408</v>
       </c>
@@ -17436,7 +17508,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="296" ht="16.5" customHeight="1">
+    <row r="296" spans="1:12" ht="16.5" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>1422</v>
       </c>
@@ -17462,7 +17534,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="297" ht="16.5" customHeight="1">
+    <row r="297" spans="1:12" ht="16.5" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>1424</v>
       </c>
@@ -17494,7 +17566,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="298" ht="16.5" customHeight="1">
+    <row r="298" spans="1:12" ht="16.5" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>1398</v>
       </c>
@@ -17529,7 +17601,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="299" ht="16.5" customHeight="1">
+    <row r="299" spans="1:12" ht="16.5" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>1433</v>
       </c>
@@ -17558,7 +17630,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="300" ht="16.5" customHeight="1">
+    <row r="300" spans="1:12" ht="16.5" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>1435</v>
       </c>
@@ -17590,7 +17662,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="301" ht="16.5" customHeight="1">
+    <row r="301" spans="1:12" ht="16.5" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>1439</v>
       </c>
@@ -17622,7 +17694,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="302" ht="16.5" customHeight="1">
+    <row r="302" spans="1:12" ht="16.5" customHeight="1">
       <c r="A302" s="1" t="s">
         <v>1442</v>
       </c>
@@ -17648,7 +17720,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="303" ht="16.5" customHeight="1">
+    <row r="303" spans="1:12" ht="16.5" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>1445</v>
       </c>
@@ -17674,7 +17746,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="304" ht="16.5" customHeight="1">
+    <row r="304" spans="1:12" ht="16.5" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17706,7 +17778,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="305" ht="16.5" customHeight="1">
+    <row r="305" spans="1:12" ht="16.5" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>1452</v>
       </c>
@@ -17732,7 +17804,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="306" ht="16.5" customHeight="1">
+    <row r="306" spans="1:12" ht="16.5" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>1454</v>
       </c>
@@ -17764,9 +17836,9 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1">
+    <row r="307" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="308" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="309" spans="1:12" ht="16.5" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>33</v>
       </c>
@@ -17795,7 +17867,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="310" ht="16.5" customHeight="1">
+    <row r="310" spans="1:12" ht="16.5" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>1460</v>
       </c>
@@ -17830,7 +17902,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="311" ht="16.5" customHeight="1">
+    <row r="311" spans="1:12" ht="16.5" customHeight="1">
       <c r="A311" s="1" t="s">
         <v>1465</v>
       </c>
@@ -17865,7 +17937,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="312" ht="16.5" customHeight="1">
+    <row r="312" spans="1:12" ht="16.5" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>1471</v>
       </c>
@@ -17900,7 +17972,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="313" ht="16.5" customHeight="1">
+    <row r="313" spans="1:12" ht="16.5" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>1477</v>
       </c>
@@ -17935,7 +18007,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="314" ht="16.5" customHeight="1">
+    <row r="314" spans="1:12" ht="16.5" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>1482</v>
       </c>
@@ -17970,7 +18042,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="315" ht="16.5" customHeight="1">
+    <row r="315" spans="1:12" ht="16.5" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>1488</v>
       </c>
@@ -18005,7 +18077,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="316" ht="16.5" customHeight="1">
+    <row r="316" spans="1:12" ht="16.5" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18040,7 +18112,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="317" ht="16.5" customHeight="1">
+    <row r="317" spans="1:12" ht="16.5" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>1498</v>
       </c>
@@ -18075,7 +18147,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="318" ht="16.5" customHeight="1">
+    <row r="318" spans="1:12" ht="16.5" customHeight="1">
       <c r="A318" s="1" t="s">
         <v>1503</v>
       </c>
@@ -18110,7 +18182,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="319" ht="16.5" customHeight="1">
+    <row r="319" spans="1:12" ht="16.5" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>1508</v>
       </c>
@@ -18145,7 +18217,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="320" ht="16.5" customHeight="1">
+    <row r="320" spans="1:12" ht="16.5" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>1513</v>
       </c>
@@ -18180,7 +18252,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="321" ht="16.5" customHeight="1">
+    <row r="321" spans="1:12" ht="16.5" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>1518</v>
       </c>
@@ -18215,7 +18287,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="322" ht="16.5" customHeight="1">
+    <row r="322" spans="1:12" ht="16.5" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>155</v>
       </c>
@@ -18244,7 +18316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="323" ht="16.5" customHeight="1">
+    <row r="323" spans="1:12" ht="16.5" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>1525</v>
       </c>
@@ -18279,7 +18351,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="324" ht="16.5" customHeight="1">
+    <row r="324" spans="1:12" ht="16.5" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>1530</v>
       </c>
@@ -18314,7 +18386,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="325" ht="16.5" customHeight="1">
+    <row r="325" spans="1:12" ht="16.5" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>1536</v>
       </c>
@@ -18346,7 +18418,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="326" ht="16.5" customHeight="1">
+    <row r="326" spans="1:12" ht="16.5" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>1541</v>
       </c>
@@ -18381,7 +18453,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="327" ht="16.5" customHeight="1">
+    <row r="327" spans="1:12" ht="16.5" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>1547</v>
       </c>
@@ -18416,7 +18488,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="328" ht="16.5" customHeight="1">
+    <row r="328" spans="1:12" ht="16.5" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>1554</v>
       </c>
@@ -18451,7 +18523,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="329" ht="16.5" customHeight="1">
+    <row r="329" spans="1:12" ht="16.5" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>1559</v>
       </c>
@@ -18477,7 +18549,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="330" ht="16.5" customHeight="1">
+    <row r="330" spans="1:12" ht="16.5" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>1561</v>
       </c>
@@ -18503,7 +18575,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="331" ht="16.5" customHeight="1">
+    <row r="331" spans="1:12" ht="16.5" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>1564</v>
       </c>
@@ -18538,7 +18610,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="332" ht="16.5" customHeight="1">
+    <row r="332" spans="1:12" ht="16.5" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>1570</v>
       </c>
@@ -18573,7 +18645,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="333" ht="16.5" customHeight="1">
+    <row r="333" spans="1:12" ht="16.5" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>556</v>
       </c>
@@ -18608,7 +18680,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="334" ht="16.5" customHeight="1">
+    <row r="334" spans="1:12" ht="16.5" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>1581</v>
       </c>
@@ -18637,7 +18709,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="335" ht="16.5" customHeight="1">
+    <row r="335" spans="1:12" ht="16.5" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>1585</v>
       </c>
@@ -18663,7 +18735,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="336" ht="16.5" customHeight="1">
+    <row r="336" spans="1:12" ht="16.5" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>1587</v>
       </c>
@@ -18698,7 +18770,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="337" ht="16.5" customHeight="1">
+    <row r="337" spans="1:13" ht="16.5" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>1593</v>
       </c>
@@ -18727,7 +18799,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="338" ht="16.5" customHeight="1">
+    <row r="338" spans="1:13" ht="16.5" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>1597</v>
       </c>
@@ -18762,7 +18834,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="339" ht="16.5" customHeight="1">
+    <row r="339" spans="1:13" ht="16.5" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>1603</v>
       </c>
@@ -18794,7 +18866,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="340" ht="16.5" customHeight="1">
+    <row r="340" spans="1:13" ht="16.5" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>1606</v>
       </c>
@@ -18829,7 +18901,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="341" ht="16.5" customHeight="1">
+    <row r="341" spans="1:13" ht="16.5" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>1612</v>
       </c>
@@ -18858,7 +18930,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="342" ht="16.5" customHeight="1">
+    <row r="342" spans="1:13" ht="16.5" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>1616</v>
       </c>
@@ -18890,7 +18962,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="343" ht="16.5" customHeight="1">
+    <row r="343" spans="1:13" ht="16.5" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>1618</v>
       </c>
@@ -18925,7 +18997,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="344" ht="16.5" customHeight="1">
+    <row r="344" spans="1:13" ht="16.5" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>1624</v>
       </c>
@@ -18960,7 +19032,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="345" ht="16.5" customHeight="1">
+    <row r="345" spans="1:13" ht="16.5" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>1629</v>
       </c>
@@ -18994,11 +19066,11 @@
       <c r="L345" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="M345" s="2">
+      <c r="M345" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="346" ht="16.5" customHeight="1">
+    <row r="346" spans="1:13" ht="16.5" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>1635</v>
       </c>
@@ -19033,7 +19105,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="347" ht="16.5" customHeight="1">
+    <row r="347" spans="1:13" ht="16.5" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>1316</v>
       </c>
@@ -19068,7 +19140,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="348" ht="16.5" customHeight="1">
+    <row r="348" spans="1:13" ht="16.5" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>1646</v>
       </c>
@@ -19100,7 +19172,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="349" ht="16.5" customHeight="1">
+    <row r="349" spans="1:13" ht="16.5" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>1634</v>
       </c>
@@ -19135,7 +19207,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="350" ht="16.5" customHeight="1">
+    <row r="350" spans="1:13" ht="16.5" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>1652</v>
       </c>
@@ -19167,12 +19239,12 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="351" ht="16.5" customHeight="1">
+    <row r="351" spans="1:13" ht="16.5" customHeight="1">
       <c r="A351" s="1" t="s">
         <v>1657</v>
       </c>
       <c r="C351" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>119</v>
@@ -19199,7 +19271,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="352" ht="16.5" customHeight="1">
+    <row r="352" spans="1:13" ht="16.5" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>1660</v>
       </c>
@@ -19231,7 +19303,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="353" ht="16.5" customHeight="1">
+    <row r="353" spans="1:13" ht="16.5" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>1664</v>
       </c>
@@ -19263,7 +19335,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="354" ht="16.5" customHeight="1">
+    <row r="354" spans="1:13" ht="16.5" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>1668</v>
       </c>
@@ -19298,7 +19370,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="355" ht="16.5" customHeight="1">
+    <row r="355" spans="1:13" ht="16.5" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>328</v>
       </c>
@@ -19332,11 +19404,11 @@
       <c r="L355" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="1" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="356" ht="16.5" customHeight="1">
+    <row r="356" spans="1:13" ht="16.5" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>1677</v>
       </c>
@@ -19371,7 +19443,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="357" ht="16.5" customHeight="1">
+    <row r="357" spans="1:13" ht="16.5" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>1681</v>
       </c>
@@ -19406,7 +19478,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="358" ht="16.5" customHeight="1">
+    <row r="358" spans="1:13" ht="16.5" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>1685</v>
       </c>
@@ -19441,7 +19513,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="359" ht="16.5" customHeight="1">
+    <row r="359" spans="1:13" ht="16.5" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>1691</v>
       </c>
@@ -19473,7 +19545,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="360" ht="16.5" customHeight="1">
+    <row r="360" spans="1:13" ht="16.5" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>1694</v>
       </c>
@@ -19502,7 +19574,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="361" ht="16.5" customHeight="1">
+    <row r="361" spans="1:13" ht="16.5" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>1697</v>
       </c>
@@ -19537,7 +19609,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="362" ht="16.5" customHeight="1">
+    <row r="362" spans="1:13" ht="16.5" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>1675</v>
       </c>
@@ -19572,7 +19644,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="363" ht="16.5" customHeight="1">
+    <row r="363" spans="1:13" ht="16.5" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>1706</v>
       </c>
@@ -19607,7 +19679,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="364" ht="16.5" customHeight="1">
+    <row r="364" spans="1:13" ht="16.5" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>1712</v>
       </c>
@@ -19633,7 +19705,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="365" ht="16.5" customHeight="1">
+    <row r="365" spans="1:13" ht="16.5" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>1714</v>
       </c>
@@ -19668,7 +19740,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="366" ht="16.5" customHeight="1">
+    <row r="366" spans="1:13" ht="16.5" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>1719</v>
       </c>
@@ -19697,7 +19769,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="367" ht="16.5" customHeight="1">
+    <row r="367" spans="1:13" ht="16.5" customHeight="1">
       <c r="A367" s="1" t="s">
         <v>1721</v>
       </c>
@@ -19729,7 +19801,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="368" ht="16.5" customHeight="1">
+    <row r="368" spans="1:13" ht="16.5" customHeight="1">
       <c r="A368" s="1" t="s">
         <v>1725</v>
       </c>
@@ -19755,7 +19827,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="369" ht="16.5" customHeight="1">
+    <row r="369" spans="1:12" ht="16.5" customHeight="1">
       <c r="A369" s="1" t="s">
         <v>1727</v>
       </c>
@@ -19787,7 +19859,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="370" ht="16.5" customHeight="1">
+    <row r="370" spans="1:12" ht="16.5" customHeight="1">
       <c r="A370" s="1" t="s">
         <v>1730</v>
       </c>
@@ -19813,7 +19885,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="371" ht="16.5" customHeight="1">
+    <row r="371" spans="1:12" ht="16.5" customHeight="1">
       <c r="A371" s="1" t="s">
         <v>1734</v>
       </c>
@@ -19842,7 +19914,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="372" ht="16.5" customHeight="1">
+    <row r="372" spans="1:12" ht="16.5" customHeight="1">
       <c r="A372" s="1" t="s">
         <v>1737</v>
       </c>
@@ -19874,9 +19946,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1">
+    <row r="373" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="374" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="375" spans="1:12" ht="16.5" customHeight="1">
       <c r="A375" s="1" t="s">
         <v>1739</v>
       </c>
@@ -19905,7 +19977,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="376" ht="16.5" customHeight="1">
+    <row r="376" spans="1:12" ht="16.5" customHeight="1">
       <c r="A376" s="1" t="s">
         <v>1744</v>
       </c>
@@ -19940,8 +20012,8 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="377" ht="16.5" customHeight="1">
-      <c r="A377" s="3" t="s">
+    <row r="377" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A377" s="2" t="s">
         <v>1747</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -19975,7 +20047,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="378" ht="16.5" customHeight="1">
+    <row r="378" spans="1:12" ht="16.5" customHeight="1">
       <c r="A378" s="1" t="s">
         <v>1752</v>
       </c>
@@ -20010,7 +20082,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="379" ht="16.5" customHeight="1">
+    <row r="379" spans="1:12" ht="16.5" customHeight="1">
       <c r="A379" s="1" t="s">
         <v>1758</v>
       </c>
@@ -20045,7 +20117,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="380" ht="16.5" customHeight="1">
+    <row r="380" spans="1:12" ht="16.5" customHeight="1">
       <c r="A380" s="1" t="s">
         <v>1763</v>
       </c>
@@ -20080,7 +20152,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="381" ht="16.5" customHeight="1">
+    <row r="381" spans="1:12" ht="16.5" customHeight="1">
       <c r="A381" s="1" t="s">
         <v>1768</v>
       </c>
@@ -20115,7 +20187,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="382" ht="16.5" customHeight="1">
+    <row r="382" spans="1:12" ht="16.5" customHeight="1">
       <c r="A382" s="1" t="s">
         <v>1774</v>
       </c>
@@ -20150,7 +20222,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="383" ht="16.5" customHeight="1">
+    <row r="383" spans="1:12" ht="16.5" customHeight="1">
       <c r="A383" s="1" t="s">
         <v>1779</v>
       </c>
@@ -20185,8 +20257,8 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="384" ht="16.5" customHeight="1">
-      <c r="A384" s="3" t="s">
+    <row r="384" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A384" s="2" t="s">
         <v>1784</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -20220,7 +20292,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="385" ht="16.5" customHeight="1">
+    <row r="385" spans="1:13" ht="16.5" customHeight="1">
       <c r="A385" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20245,9 +20317,9 @@
       <c r="I385" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="L385" s="3"/>
-    </row>
-    <row r="386" ht="16.5" customHeight="1">
+      <c r="L385" s="2"/>
+    </row>
+    <row r="386" spans="1:13" ht="16.5" customHeight="1">
       <c r="A386" s="1" t="s">
         <v>1792</v>
       </c>
@@ -20278,11 +20350,11 @@
       <c r="K386" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="L386" s="3" t="s">
+      <c r="L386" s="2" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="387" ht="16.5" customHeight="1">
+    <row r="387" spans="1:13" ht="16.5" customHeight="1">
       <c r="A387" s="1" t="s">
         <v>1798</v>
       </c>
@@ -20317,8 +20389,8 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="388" ht="16.5" customHeight="1">
-      <c r="A388" s="3" t="s">
+    <row r="388" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A388" s="2" t="s">
         <v>1804</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -20352,7 +20424,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="389" ht="16.5" customHeight="1">
+    <row r="389" spans="1:13" ht="16.5" customHeight="1">
       <c r="A389" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20378,7 +20450,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="390" ht="16.5" customHeight="1">
+    <row r="390" spans="1:13" ht="16.5" customHeight="1">
       <c r="A390" s="1" t="s">
         <v>1811</v>
       </c>
@@ -20413,8 +20485,8 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="391" ht="16.5" customHeight="1">
-      <c r="A391" s="3" t="s">
+    <row r="391" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A391" s="2" t="s">
         <v>1817</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -20451,7 +20523,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="392" ht="16.5" customHeight="1">
+    <row r="392" spans="1:13" ht="16.5" customHeight="1">
       <c r="A392" s="1" t="s">
         <v>1206</v>
       </c>
@@ -20483,7 +20555,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="393" ht="16.5" customHeight="1">
+    <row r="393" spans="1:13" ht="16.5" customHeight="1">
       <c r="A393" s="1" t="s">
         <v>1826</v>
       </c>
@@ -20521,7 +20593,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="394" ht="16.5" customHeight="1">
+    <row r="394" spans="1:13" ht="16.5" customHeight="1">
       <c r="A394" s="1" t="s">
         <v>1832</v>
       </c>
@@ -20559,12 +20631,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="395" ht="16.5" customHeight="1">
+    <row r="395" spans="1:13" ht="16.5" customHeight="1">
       <c r="A395" s="1" t="s">
         <v>1838</v>
       </c>
       <c r="C395" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>15</v>
@@ -20585,7 +20657,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="396" ht="16.5" customHeight="1">
+    <row r="396" spans="1:13" ht="16.5" customHeight="1">
       <c r="A396" s="1" t="s">
         <v>1840</v>
       </c>
@@ -20620,7 +20692,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="397" ht="16.5" customHeight="1">
+    <row r="397" spans="1:13" ht="16.5" customHeight="1">
       <c r="A397" s="1" t="s">
         <v>1846</v>
       </c>
@@ -20645,11 +20717,11 @@
       <c r="I397" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="L397" s="3" t="s">
+      <c r="L397" s="2" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="398" ht="16.5" customHeight="1">
+    <row r="398" spans="1:13" ht="16.5" customHeight="1">
       <c r="A398" s="1" t="s">
         <v>1850</v>
       </c>
@@ -20684,7 +20756,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="399" ht="16.5" customHeight="1">
+    <row r="399" spans="1:13" ht="16.5" customHeight="1">
       <c r="A399" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20710,7 +20782,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="400" ht="16.5" customHeight="1">
+    <row r="400" spans="1:13" ht="16.5" customHeight="1">
       <c r="A400" s="1" t="s">
         <v>1857</v>
       </c>
@@ -20745,7 +20817,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="401" ht="16.5" customHeight="1">
+    <row r="401" spans="1:13" ht="16.5" customHeight="1">
       <c r="A401" s="1" t="s">
         <v>1862</v>
       </c>
@@ -20783,7 +20855,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="402" ht="16.5" customHeight="1">
+    <row r="402" spans="1:13" ht="16.5" customHeight="1">
       <c r="A402" s="1" t="s">
         <v>1869</v>
       </c>
@@ -20815,7 +20887,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="403" ht="16.5" customHeight="1">
+    <row r="403" spans="1:13" ht="16.5" customHeight="1">
       <c r="A403" s="1" t="s">
         <v>1873</v>
       </c>
@@ -20850,7 +20922,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="404" ht="16.5" customHeight="1">
+    <row r="404" spans="1:13" ht="16.5" customHeight="1">
       <c r="A404" s="1" t="s">
         <v>1878</v>
       </c>
@@ -20882,7 +20954,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="405" ht="16.5" customHeight="1">
+    <row r="405" spans="1:13" ht="16.5" customHeight="1">
       <c r="A405" s="1" t="s">
         <v>1880</v>
       </c>
@@ -20914,7 +20986,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="406" ht="16.5" customHeight="1">
+    <row r="406" spans="1:13" ht="16.5" customHeight="1">
       <c r="A406" s="1" t="s">
         <v>1884</v>
       </c>
@@ -20949,7 +21021,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="407" ht="16.5" customHeight="1">
+    <row r="407" spans="1:13" ht="16.5" customHeight="1">
       <c r="A407" s="1" t="s">
         <v>1890</v>
       </c>
@@ -20987,7 +21059,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="408" ht="16.5" customHeight="1">
+    <row r="408" spans="1:13" ht="16.5" customHeight="1">
       <c r="A408" s="1" t="s">
         <v>1896</v>
       </c>
@@ -21022,7 +21094,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="409" ht="16.5" customHeight="1">
+    <row r="409" spans="1:13" ht="16.5" customHeight="1">
       <c r="A409" s="1" t="s">
         <v>1901</v>
       </c>
@@ -21054,7 +21126,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="410" ht="16.5" customHeight="1">
+    <row r="410" spans="1:13" ht="16.5" customHeight="1">
       <c r="A410" s="1" t="s">
         <v>1905</v>
       </c>
@@ -21089,7 +21161,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="411" ht="16.5" customHeight="1">
+    <row r="411" spans="1:13" ht="16.5" customHeight="1">
       <c r="A411" s="1" t="s">
         <v>1912</v>
       </c>
@@ -21124,7 +21196,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="412" ht="16.5" customHeight="1">
+    <row r="412" spans="1:13" ht="16.5" customHeight="1">
       <c r="A412" s="1" t="s">
         <v>1917</v>
       </c>
@@ -21159,7 +21231,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="413" ht="16.5" customHeight="1">
+    <row r="413" spans="1:13" ht="16.5" customHeight="1">
       <c r="A413" s="1" t="s">
         <v>1920</v>
       </c>
@@ -21194,7 +21266,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="414" ht="16.5" customHeight="1">
+    <row r="414" spans="1:13" ht="16.5" customHeight="1">
       <c r="A414" s="1" t="s">
         <v>1924</v>
       </c>
@@ -21226,7 +21298,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="415" ht="16.5" customHeight="1">
+    <row r="415" spans="1:13" ht="16.5" customHeight="1">
       <c r="A415" s="1" t="s">
         <v>1929</v>
       </c>
@@ -21261,7 +21333,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="416" ht="16.5" customHeight="1">
+    <row r="416" spans="1:13" ht="16.5" customHeight="1">
       <c r="A416" s="1" t="s">
         <v>1933</v>
       </c>
@@ -21290,7 +21362,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="417" ht="16.5" customHeight="1">
+    <row r="417" spans="1:12" ht="16.5" customHeight="1">
       <c r="A417" s="1" t="s">
         <v>1936</v>
       </c>
@@ -21322,7 +21394,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="418" ht="16.5" customHeight="1">
+    <row r="418" spans="1:12" ht="16.5" customHeight="1">
       <c r="A418" s="1" t="s">
         <v>1939</v>
       </c>
@@ -21354,7 +21426,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="419" ht="16.5" customHeight="1">
+    <row r="419" spans="1:12" ht="16.5" customHeight="1">
       <c r="A419" s="1" t="s">
         <v>703</v>
       </c>
@@ -21389,7 +21461,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="420" ht="16.5" customHeight="1">
+    <row r="420" spans="1:12" ht="16.5" customHeight="1">
       <c r="A420" s="1" t="s">
         <v>1947</v>
       </c>
@@ -21424,7 +21496,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="421" ht="16.5" customHeight="1">
+    <row r="421" spans="1:12" ht="16.5" customHeight="1">
       <c r="A421" s="1" t="s">
         <v>1951</v>
       </c>
@@ -21453,7 +21525,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="422" ht="16.5" customHeight="1">
+    <row r="422" spans="1:12" ht="16.5" customHeight="1">
       <c r="A422" s="1" t="s">
         <v>1955</v>
       </c>
@@ -21488,7 +21560,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="423" ht="16.5" customHeight="1">
+    <row r="423" spans="1:12" ht="16.5" customHeight="1">
       <c r="A423" s="1" t="s">
         <v>1958</v>
       </c>
@@ -21523,7 +21595,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="424" ht="16.5" customHeight="1">
+    <row r="424" spans="1:12" ht="16.5" customHeight="1">
       <c r="A424" s="1" t="s">
         <v>1965</v>
       </c>
@@ -21558,7 +21630,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="425" ht="16.5" customHeight="1">
+    <row r="425" spans="1:12" ht="16.5" customHeight="1">
       <c r="A425" s="1" t="s">
         <v>1968</v>
       </c>
@@ -21593,7 +21665,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="426" ht="16.5" customHeight="1">
+    <row r="426" spans="1:12" ht="16.5" customHeight="1">
       <c r="A426" s="1" t="s">
         <v>1971</v>
       </c>
@@ -21625,7 +21697,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="427" ht="16.5" customHeight="1">
+    <row r="427" spans="1:12" ht="16.5" customHeight="1">
       <c r="A427" s="1" t="s">
         <v>1975</v>
       </c>
@@ -21657,7 +21729,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="428" ht="16.5" customHeight="1">
+    <row r="428" spans="1:12" ht="16.5" customHeight="1">
       <c r="A428" s="1" t="s">
         <v>1980</v>
       </c>
@@ -21686,7 +21758,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="429" ht="16.5" customHeight="1">
+    <row r="429" spans="1:12" ht="16.5" customHeight="1">
       <c r="A429" s="1" t="s">
         <v>1985</v>
       </c>
@@ -21718,7 +21790,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="430" ht="16.5" customHeight="1">
+    <row r="430" spans="1:12" ht="16.5" customHeight="1">
       <c r="A430" s="1" t="s">
         <v>1989</v>
       </c>
@@ -21750,7 +21822,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="431" ht="16.5" customHeight="1">
+    <row r="431" spans="1:12" ht="16.5" customHeight="1">
       <c r="A431" s="1" t="s">
         <v>1994</v>
       </c>
@@ -21779,7 +21851,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="432" ht="16.5" customHeight="1">
+    <row r="432" spans="1:12" ht="16.5" customHeight="1">
       <c r="A432" s="1" t="s">
         <v>1998</v>
       </c>
@@ -21811,7 +21883,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="433" ht="16.5" customHeight="1">
+    <row r="433" spans="1:12" ht="16.5" customHeight="1">
       <c r="A433" s="1" t="s">
         <v>2003</v>
       </c>
@@ -21846,7 +21918,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="434" ht="16.5" customHeight="1">
+    <row r="434" spans="1:12" ht="16.5" customHeight="1">
       <c r="A434" s="1" t="s">
         <v>2009</v>
       </c>
@@ -21872,7 +21944,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="435" ht="16.5" customHeight="1">
+    <row r="435" spans="1:12" ht="16.5" customHeight="1">
       <c r="A435" s="1" t="s">
         <v>2012</v>
       </c>
@@ -21904,7 +21976,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="436" ht="16.5" customHeight="1">
+    <row r="436" spans="1:12" ht="16.5" customHeight="1">
       <c r="A436" s="1" t="s">
         <v>2017</v>
       </c>
@@ -21936,7 +22008,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="437" ht="16.5" customHeight="1">
+    <row r="437" spans="1:12" ht="16.5" customHeight="1">
       <c r="A437" s="1" t="s">
         <v>2021</v>
       </c>
@@ -21962,7 +22034,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="438" ht="16.5" customHeight="1">
+    <row r="438" spans="1:12" ht="16.5" customHeight="1">
       <c r="A438" s="1" t="s">
         <v>2008</v>
       </c>
@@ -21994,7 +22066,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="439" ht="16.5" customHeight="1">
+    <row r="439" spans="1:12" ht="16.5" customHeight="1">
       <c r="A439" s="1" t="s">
         <v>2030</v>
       </c>
@@ -22020,7 +22092,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="440" ht="16.5" customHeight="1">
+    <row r="440" spans="1:12" ht="16.5" customHeight="1">
       <c r="A440" s="1" t="s">
         <v>2034</v>
       </c>
@@ -22052,9 +22124,9 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1">
+    <row r="441" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="442" spans="1:12" ht="16.5" customHeight="1"/>
+    <row r="443" spans="1:12" ht="16.5" customHeight="1">
       <c r="A443" s="1" t="s">
         <v>461</v>
       </c>
@@ -22083,7 +22155,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="444" ht="16.5" customHeight="1">
+    <row r="444" spans="1:12" ht="16.5" customHeight="1">
       <c r="A444" s="1" t="s">
         <v>2042</v>
       </c>
@@ -22118,7 +22190,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="445" ht="16.5" customHeight="1">
+    <row r="445" spans="1:12" ht="16.5" customHeight="1">
       <c r="A445" s="1" t="s">
         <v>2046</v>
       </c>
@@ -22153,7 +22225,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="446" ht="16.5" customHeight="1">
+    <row r="446" spans="1:12" ht="16.5" customHeight="1">
       <c r="A446" s="1" t="s">
         <v>2053</v>
       </c>
@@ -22188,7 +22260,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="447" ht="16.5" customHeight="1">
+    <row r="447" spans="1:12" ht="16.5" customHeight="1">
       <c r="A447" s="1" t="s">
         <v>2058</v>
       </c>
@@ -22223,7 +22295,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="448" ht="16.5" customHeight="1">
+    <row r="448" spans="1:12" ht="16.5" customHeight="1">
       <c r="A448" s="1" t="s">
         <v>2064</v>
       </c>
@@ -22258,7 +22330,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="449" ht="16.5" customHeight="1">
+    <row r="449" spans="1:13" ht="16.5" customHeight="1">
       <c r="A449" s="1" t="s">
         <v>2067</v>
       </c>
@@ -22293,7 +22365,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="450" ht="16.5" customHeight="1">
+    <row r="450" spans="1:13" ht="16.5" customHeight="1">
       <c r="A450" s="1" t="s">
         <v>2071</v>
       </c>
@@ -22328,7 +22400,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="451" ht="16.5" customHeight="1">
+    <row r="451" spans="1:13" ht="16.5" customHeight="1">
       <c r="A451" s="1" t="s">
         <v>2077</v>
       </c>
@@ -22363,7 +22435,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="452" ht="16.5" customHeight="1">
+    <row r="452" spans="1:13" ht="16.5" customHeight="1">
       <c r="A452" s="1" t="s">
         <v>2082</v>
       </c>
@@ -22398,7 +22470,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="453" ht="16.5" customHeight="1">
+    <row r="453" spans="1:13" ht="16.5" customHeight="1">
       <c r="A453" s="1" t="s">
         <v>2088</v>
       </c>
@@ -22433,7 +22505,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="454" ht="16.5" customHeight="1">
+    <row r="454" spans="1:13" ht="16.5" customHeight="1">
       <c r="A454" s="1" t="s">
         <v>2094</v>
       </c>
@@ -22468,7 +22540,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="455" ht="16.5" customHeight="1">
+    <row r="455" spans="1:13" ht="16.5" customHeight="1">
       <c r="A455" s="1" t="s">
         <v>2100</v>
       </c>
@@ -22503,7 +22575,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="456" ht="16.5" customHeight="1">
+    <row r="456" spans="1:13" ht="16.5" customHeight="1">
       <c r="A456" s="1" t="s">
         <v>2106</v>
       </c>
@@ -22517,7 +22589,7 @@
         <v>16</v>
       </c>
       <c r="F456" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G456" s="1" t="s">
         <v>2108</v>
@@ -22538,7 +22610,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="457" ht="16.5" customHeight="1">
+    <row r="457" spans="1:13" ht="16.5" customHeight="1">
       <c r="A457" s="1" t="s">
         <v>2113</v>
       </c>
@@ -22573,7 +22645,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="458" ht="16.5" customHeight="1">
+    <row r="458" spans="1:13" ht="16.5" customHeight="1">
       <c r="A458" s="1" t="s">
         <v>2120</v>
       </c>
@@ -22608,7 +22680,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="459" ht="16.5" customHeight="1">
+    <row r="459" spans="1:13" ht="16.5" customHeight="1">
       <c r="A459" s="1" t="s">
         <v>2126</v>
       </c>
@@ -22643,7 +22715,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="460" ht="16.5" customHeight="1">
+    <row r="460" spans="1:13" ht="16.5" customHeight="1">
       <c r="A460" s="1" t="s">
         <v>2130</v>
       </c>
@@ -22678,7 +22750,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="461" ht="16.5" customHeight="1">
+    <row r="461" spans="1:13" ht="16.5" customHeight="1">
       <c r="A461" s="1" t="s">
         <v>2136</v>
       </c>
@@ -22713,7 +22785,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="462" ht="16.5" customHeight="1">
+    <row r="462" spans="1:13" ht="16.5" customHeight="1">
       <c r="A462" s="1" t="s">
         <v>122</v>
       </c>
@@ -22748,7 +22820,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="463" ht="16.5" customHeight="1">
+    <row r="463" spans="1:13" ht="16.5" customHeight="1">
       <c r="A463" s="1" t="s">
         <v>2147</v>
       </c>
@@ -22783,7 +22855,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="464" ht="16.5" customHeight="1">
+    <row r="464" spans="1:13" ht="16.5" customHeight="1">
       <c r="A464" s="1" t="s">
         <v>2154</v>
       </c>
@@ -22815,7 +22887,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="465" ht="16.5" customHeight="1">
+    <row r="465" spans="1:13" ht="16.5" customHeight="1">
       <c r="A465" s="1" t="s">
         <v>2158</v>
       </c>
@@ -22844,7 +22916,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="466" ht="16.5" customHeight="1">
+    <row r="466" spans="1:13" ht="16.5" customHeight="1">
       <c r="A466" s="1" t="s">
         <v>585</v>
       </c>
@@ -22870,7 +22942,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="467" ht="16.5" customHeight="1">
+    <row r="467" spans="1:13" ht="16.5" customHeight="1">
       <c r="A467" s="1" t="s">
         <v>2163</v>
       </c>
@@ -22908,7 +22980,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="468" ht="16.5" customHeight="1">
+    <row r="468" spans="1:13" ht="16.5" customHeight="1">
       <c r="A468" s="1" t="s">
         <v>213</v>
       </c>
@@ -22940,7 +23012,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="469" ht="16.5" customHeight="1">
+    <row r="469" spans="1:13" ht="16.5" customHeight="1">
       <c r="A469" s="1" t="s">
         <v>2153</v>
       </c>
@@ -22975,7 +23047,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="470" ht="16.5" customHeight="1">
+    <row r="470" spans="1:13" ht="16.5" customHeight="1">
       <c r="A470" s="1" t="s">
         <v>2178</v>
       </c>
@@ -23013,7 +23085,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="471" ht="16.5" customHeight="1">
+    <row r="471" spans="1:13" ht="16.5" customHeight="1">
       <c r="A471" s="1" t="s">
         <v>2184</v>
       </c>
@@ -23051,7 +23123,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="472" ht="16.5" customHeight="1">
+    <row r="472" spans="1:13" ht="16.5" customHeight="1">
       <c r="A472" s="1" t="s">
         <v>2190</v>
       </c>
@@ -23086,7 +23158,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="473" ht="16.5" customHeight="1">
+    <row r="473" spans="1:13" ht="16.5" customHeight="1">
       <c r="A473" s="1" t="s">
         <v>2195</v>
       </c>
@@ -23121,7 +23193,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="474" ht="16.5" customHeight="1">
+    <row r="474" spans="1:13" ht="16.5" customHeight="1">
       <c r="A474" s="1" t="s">
         <v>2198</v>
       </c>
@@ -23153,7 +23225,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="475" ht="16.5" customHeight="1">
+    <row r="475" spans="1:13" ht="16.5" customHeight="1">
       <c r="A475" s="1" t="s">
         <v>2201</v>
       </c>
@@ -23188,7 +23260,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="476" ht="16.5" customHeight="1">
+    <row r="476" spans="1:13" ht="16.5" customHeight="1">
       <c r="A476" s="1" t="s">
         <v>2205</v>
       </c>
@@ -23223,7 +23295,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="477" ht="16.5" customHeight="1">
+    <row r="477" spans="1:13" ht="16.5" customHeight="1">
       <c r="A477" s="1" t="s">
         <v>2210</v>
       </c>
@@ -23255,7 +23327,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="478" ht="16.5" customHeight="1">
+    <row r="478" spans="1:13" ht="16.5" customHeight="1">
       <c r="A478" s="1" t="s">
         <v>2215</v>
       </c>
@@ -23290,7 +23362,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="479" ht="16.5" customHeight="1">
+    <row r="479" spans="1:13" ht="16.5" customHeight="1">
       <c r="A479" s="1" t="s">
         <v>2177</v>
       </c>
@@ -23322,7 +23394,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="480" ht="16.5" customHeight="1">
+    <row r="480" spans="1:13" ht="16.5" customHeight="1">
       <c r="A480" s="1" t="s">
         <v>2225</v>
       </c>
@@ -23357,7 +23429,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="481" ht="16.5" customHeight="1">
+    <row r="481" spans="1:13" ht="16.5" customHeight="1">
       <c r="A481" s="1" t="s">
         <v>2229</v>
       </c>
@@ -23386,10 +23458,10 @@
         <v>2232</v>
       </c>
       <c r="M481" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="482" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" ht="16.5" customHeight="1">
       <c r="A482" s="1" t="s">
         <v>2219</v>
       </c>
@@ -23424,7 +23496,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="483" ht="16.5" customHeight="1">
+    <row r="483" spans="1:13" ht="16.5" customHeight="1">
       <c r="A483" s="1" t="s">
         <v>2236</v>
       </c>
@@ -23459,7 +23531,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="484" ht="16.5" customHeight="1">
+    <row r="484" spans="1:13" ht="16.5" customHeight="1">
       <c r="A484" s="1" t="s">
         <v>1310</v>
       </c>
@@ -23494,7 +23566,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="485" ht="16.5" customHeight="1">
+    <row r="485" spans="1:13" ht="16.5" customHeight="1">
       <c r="A485" s="1" t="s">
         <v>2241</v>
       </c>
@@ -23526,7 +23598,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="486" ht="16.5" customHeight="1">
+    <row r="486" spans="1:13" ht="16.5" customHeight="1">
       <c r="A486" s="1" t="s">
         <v>2249</v>
       </c>
@@ -23552,10 +23624,10 @@
         <v>2251</v>
       </c>
       <c r="M486" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="487" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" ht="16.5" customHeight="1">
       <c r="A487" s="1" t="s">
         <v>2252</v>
       </c>
@@ -23581,10 +23653,10 @@
         <v>2254</v>
       </c>
       <c r="M487" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="488" ht="16.5" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" ht="16.5" customHeight="1">
       <c r="A488" s="1" t="s">
         <v>1347</v>
       </c>
@@ -23616,7 +23688,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="489" ht="16.5" customHeight="1">
+    <row r="489" spans="1:13" ht="16.5" customHeight="1">
       <c r="A489" s="1" t="s">
         <v>2258</v>
       </c>
@@ -23648,7 +23720,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="490" ht="16.5" customHeight="1">
+    <row r="490" spans="1:13" ht="16.5" customHeight="1">
       <c r="A490" s="1" t="s">
         <v>337</v>
       </c>
@@ -23680,7 +23752,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="491" ht="16.5" customHeight="1">
+    <row r="491" spans="1:13" ht="16.5" customHeight="1">
       <c r="A491" s="1" t="s">
         <v>712</v>
       </c>
@@ -23715,7 +23787,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="492" ht="16.5" customHeight="1">
+    <row r="492" spans="1:13" ht="16.5" customHeight="1">
       <c r="A492" s="1" t="s">
         <v>2268</v>
       </c>
@@ -23750,7 +23822,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="493" ht="16.5" customHeight="1">
+    <row r="493" spans="1:13" ht="16.5" customHeight="1">
       <c r="A493" s="1" t="s">
         <v>1067</v>
       </c>
@@ -23785,12 +23857,12 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="494" ht="16.5" customHeight="1">
+    <row r="494" spans="1:13" ht="16.5" customHeight="1">
       <c r="A494" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="C494" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>119</v>
@@ -23820,7 +23892,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="495" ht="16.5" customHeight="1">
+    <row r="495" spans="1:13" ht="16.5" customHeight="1">
       <c r="A495" s="1" t="s">
         <v>2277</v>
       </c>
@@ -23846,7 +23918,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="496" ht="16.5" customHeight="1">
+    <row r="496" spans="1:13" ht="16.5" customHeight="1">
       <c r="A496" s="1" t="s">
         <v>2281</v>
       </c>
@@ -23878,7 +23950,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="497" ht="16.5" customHeight="1">
+    <row r="497" spans="1:12" ht="16.5" customHeight="1">
       <c r="A497" s="1" t="s">
         <v>1964</v>
       </c>
@@ -23910,7 +23982,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="498" ht="16.5" customHeight="1">
+    <row r="498" spans="1:12" ht="16.5" customHeight="1">
       <c r="A498" s="1" t="s">
         <v>2287</v>
       </c>
@@ -23942,7 +24014,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="499" ht="16.5" customHeight="1">
+    <row r="499" spans="1:12" ht="16.5" customHeight="1">
       <c r="A499" s="1" t="s">
         <v>2293</v>
       </c>
@@ -23968,7 +24040,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="500" ht="16.5" customHeight="1">
+    <row r="500" spans="1:12" ht="16.5" customHeight="1">
       <c r="A500" s="1" t="s">
         <v>2295</v>
       </c>
@@ -23997,7 +24069,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="501" ht="16.5" customHeight="1">
+    <row r="501" spans="1:12" ht="16.5" customHeight="1">
       <c r="A501" s="1" t="s">
         <v>395</v>
       </c>
@@ -24032,7 +24104,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="502" ht="16.5" customHeight="1">
+    <row r="502" spans="1:12" ht="16.5" customHeight="1">
       <c r="A502" s="1" t="s">
         <v>2301</v>
       </c>
@@ -24064,7 +24136,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="503" ht="16.5" customHeight="1">
+    <row r="503" spans="1:12" ht="16.5" customHeight="1">
       <c r="A503" s="1" t="s">
         <v>763</v>
       </c>
@@ -24099,7 +24171,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="504" ht="16.5" customHeight="1">
+    <row r="504" spans="1:12" ht="16.5" customHeight="1">
       <c r="A504" s="1" t="s">
         <v>2309</v>
       </c>
@@ -24128,7 +24200,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="505" ht="16.5" customHeight="1">
+    <row r="505" spans="1:12" ht="16.5" customHeight="1">
       <c r="A505" s="1" t="s">
         <v>2311</v>
       </c>
@@ -24160,7 +24232,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="506" ht="16.5" customHeight="1">
+    <row r="506" spans="1:12" ht="16.5" customHeight="1">
       <c r="A506" s="1" t="s">
         <v>1702</v>
       </c>
@@ -24195,7 +24267,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="507" ht="16.5" customHeight="1">
+    <row r="507" spans="1:12" ht="16.5" customHeight="1">
       <c r="A507" s="1" t="s">
         <v>2308</v>
       </c>
@@ -24227,7 +24299,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="508" ht="16.5" customHeight="1">
+    <row r="508" spans="1:12" ht="16.5" customHeight="1">
       <c r="A508" s="1" t="s">
         <v>2318</v>
       </c>
@@ -24259,7 +24331,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="509" ht="16.5" customHeight="1">
+    <row r="509" spans="1:12" ht="16.5" customHeight="1">
       <c r="A509" s="1" t="s">
         <v>2324</v>
       </c>
@@ -24285,7 +24357,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="510" ht="16.5" customHeight="1">
+    <row r="510" spans="1:12" ht="16.5" customHeight="1">
       <c r="A510" s="1" t="s">
         <v>2327</v>
       </c>
@@ -24311,7 +24383,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="511" ht="16.5" customHeight="1">
+    <row r="511" spans="1:12" ht="16.5" customHeight="1">
       <c r="A511" s="1" t="s">
         <v>2330</v>
       </c>
@@ -24343,11 +24415,64 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1">
+    <row r="512" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A512" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A513" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" ht="16.5" customHeight="1">
       <c r="A514" s="1" t="s">
-        <v>2336</v>
+        <v>2346</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>1740</v>
@@ -24365,18 +24490,18 @@
         <v>18</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>2338</v>
+        <v>2348</v>
       </c>
       <c r="L514" s="1" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="515" ht="16.5" customHeight="1">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" ht="16.5" customHeight="1">
       <c r="A515" s="1" t="s">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>346</v>
@@ -24394,15 +24519,15 @@
         <v>18</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="516" ht="16.5" customHeight="1">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" ht="16.5" customHeight="1">
       <c r="A516" s="1" t="s">
-        <v>2342</v>
+        <v>2352</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>346</v>
@@ -24420,15 +24545,15 @@
         <v>18</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="517" ht="16.5" customHeight="1">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" ht="16.5" customHeight="1">
       <c r="A517" s="1" t="s">
-        <v>2344</v>
+        <v>2354</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>23</v>
@@ -24446,27 +24571,27 @@
         <v>18</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>2345</v>
+        <v>2355</v>
       </c>
       <c r="J517" s="1" t="s">
-        <v>2346</v>
+        <v>2356</v>
       </c>
       <c r="K517" s="1" t="s">
-        <v>2347</v>
+        <v>2357</v>
       </c>
       <c r="L517" s="1" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="518" ht="16.5" customHeight="1">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" ht="16.5" customHeight="1">
       <c r="A518" s="1" t="s">
-        <v>2349</v>
+        <v>2359</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>2350</v>
+        <v>2360</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>15</v>
@@ -24481,24 +24606,24 @@
         <v>18</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>2351</v>
+        <v>2361</v>
       </c>
       <c r="J518" s="1" t="s">
-        <v>2352</v>
+        <v>2362</v>
       </c>
       <c r="K518" s="1" t="s">
-        <v>2353</v>
+        <v>2363</v>
       </c>
       <c r="L518" s="1" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="519" ht="16.5" customHeight="1">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" ht="16.5" customHeight="1">
       <c r="A519" s="1" t="s">
-        <v>2355</v>
+        <v>2365</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>30</v>
@@ -24516,24 +24641,24 @@
         <v>18</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>2356</v>
+        <v>2366</v>
       </c>
       <c r="J519" s="1" t="s">
-        <v>2357</v>
+        <v>2367</v>
       </c>
       <c r="K519" s="1" t="s">
-        <v>2358</v>
+        <v>2368</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="520" ht="16.5" customHeight="1">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" ht="16.5" customHeight="1">
       <c r="A520" s="1" t="s">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>53</v>
@@ -24551,24 +24676,24 @@
         <v>18</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>2361</v>
+        <v>2371</v>
       </c>
       <c r="J520" s="1" t="s">
-        <v>2362</v>
+        <v>2372</v>
       </c>
       <c r="K520" s="1" t="s">
-        <v>2363</v>
+        <v>2373</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="521" ht="16.5" customHeight="1">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" ht="16.5" customHeight="1">
       <c r="A521" s="1" t="s">
-        <v>2365</v>
+        <v>2375</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>450</v>
@@ -24586,24 +24711,24 @@
         <v>18</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>2366</v>
+        <v>2376</v>
       </c>
       <c r="J521" s="1" t="s">
-        <v>2367</v>
+        <v>2377</v>
       </c>
       <c r="K521" s="1" t="s">
-        <v>2368</v>
+        <v>2378</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="522" ht="16.5" customHeight="1">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" ht="16.5" customHeight="1">
       <c r="A522" s="1" t="s">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>1133</v>
@@ -24621,24 +24746,24 @@
         <v>18</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>2371</v>
+        <v>2381</v>
       </c>
       <c r="J522" s="1" t="s">
-        <v>2372</v>
+        <v>2382</v>
       </c>
       <c r="K522" s="1" t="s">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="523" ht="16.5" customHeight="1">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" ht="16.5" customHeight="1">
       <c r="A523" s="1" t="s">
-        <v>2375</v>
+        <v>2385</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>1133</v>
@@ -24656,24 +24781,24 @@
         <v>18</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>2376</v>
+        <v>2386</v>
       </c>
       <c r="J523" s="1" t="s">
-        <v>2377</v>
+        <v>2387</v>
       </c>
       <c r="K523" s="1" t="s">
-        <v>2378</v>
+        <v>2388</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="524" ht="16.5" customHeight="1">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" ht="16.5" customHeight="1">
       <c r="A524" s="1" t="s">
-        <v>2380</v>
+        <v>2390</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>1166</v>
@@ -24691,24 +24816,24 @@
         <v>18</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>2381</v>
+        <v>2391</v>
       </c>
       <c r="J524" s="1" t="s">
-        <v>2382</v>
+        <v>2392</v>
       </c>
       <c r="K524" s="1" t="s">
-        <v>2383</v>
+        <v>2393</v>
       </c>
       <c r="L524" s="1" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="525" ht="16.5" customHeight="1">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" ht="16.5" customHeight="1">
       <c r="A525" s="1" t="s">
-        <v>2385</v>
+        <v>2395</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>1166</v>
@@ -24726,22 +24851,22 @@
         <v>174</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>2386</v>
+        <v>2396</v>
       </c>
       <c r="J525" s="1" t="s">
-        <v>2380</v>
+        <v>2390</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>860</v>
       </c>
       <c r="L525" s="1" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="526" ht="16.5" customHeight="1">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" ht="16.5" customHeight="1">
       <c r="A526" s="1" t="s">
         <v>336</v>
       </c>
@@ -24761,15 +24886,15 @@
         <v>18</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="527" ht="16.5" customHeight="1">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" ht="16.5" customHeight="1">
       <c r="A527" s="1" t="s">
-        <v>2389</v>
+        <v>2399</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>1185</v>
@@ -24781,33 +24906,33 @@
         <v>16</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>2390</v>
+        <v>2400</v>
       </c>
       <c r="G527" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>2391</v>
+        <v>2401</v>
       </c>
       <c r="J527" s="1" t="s">
-        <v>2392</v>
+        <v>2402</v>
       </c>
       <c r="K527" s="1" t="s">
-        <v>2393</v>
+        <v>2403</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="528" ht="16.5" customHeight="1">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" ht="16.5" customHeight="1">
       <c r="A528" s="1" t="s">
-        <v>2395</v>
+        <v>2405</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>2396</v>
+        <v>2406</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>898</v>
@@ -24819,30 +24944,30 @@
         <v>16</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>2397</v>
+        <v>2407</v>
       </c>
       <c r="G528" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H528" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>2398</v>
+        <v>2408</v>
       </c>
       <c r="J528" s="1" t="s">
-        <v>2399</v>
+        <v>2409</v>
       </c>
       <c r="K528" s="1" t="s">
-        <v>2400</v>
+        <v>2410</v>
       </c>
       <c r="L528" s="1" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="529" ht="16.5" customHeight="1">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" ht="16.5" customHeight="1">
       <c r="A529" s="1" t="s">
-        <v>2402</v>
+        <v>2412</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>346</v>
@@ -24860,21 +24985,21 @@
         <v>18</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I529" s="1" t="s">
-        <v>2403</v>
+        <v>2413</v>
       </c>
       <c r="J529" s="1" t="s">
-        <v>2404</v>
+        <v>2414</v>
       </c>
       <c r="K529" s="1" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="530" ht="16.5" customHeight="1">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" ht="16.5" customHeight="1">
       <c r="A530" s="1" t="s">
-        <v>2406</v>
+        <v>2416</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>2137</v>
@@ -24886,24 +25011,24 @@
         <v>16</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>2407</v>
+        <v>2417</v>
       </c>
       <c r="G530" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H530" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I530" s="1" t="s">
-        <v>2408</v>
+        <v>2418</v>
       </c>
       <c r="L530" s="1" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="531" ht="16.5" customHeight="1">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" ht="16.5" customHeight="1">
       <c r="A531" s="1" t="s">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>891</v>
@@ -24921,27 +25046,27 @@
         <v>174</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>2411</v>
+        <v>2421</v>
       </c>
       <c r="J531" s="1" t="s">
-        <v>2412</v>
+        <v>2422</v>
       </c>
       <c r="K531" s="1" t="s">
-        <v>2413</v>
+        <v>2423</v>
       </c>
       <c r="L531" s="1" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="532" ht="16.5" customHeight="1">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" ht="16.5" customHeight="1">
       <c r="A532" s="1" t="s">
-        <v>2415</v>
+        <v>2425</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2416</v>
+        <v>2426</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>119</v>
@@ -24950,36 +25075,36 @@
         <v>16</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>2417</v>
+        <v>2427</v>
       </c>
       <c r="G532" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I532" s="1" t="s">
-        <v>2418</v>
+        <v>2428</v>
       </c>
       <c r="J532" s="1" t="s">
-        <v>2419</v>
+        <v>2429</v>
       </c>
       <c r="K532" s="1" t="s">
-        <v>2420</v>
+        <v>2430</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>2421</v>
+        <v>2431</v>
       </c>
       <c r="M532" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="533" ht="16.5" customHeight="1">
+    <row r="533" spans="1:13" ht="16.5" customHeight="1">
       <c r="A533" s="1" t="s">
-        <v>2422</v>
+        <v>2432</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2423</v>
+        <v>2433</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>119</v>
@@ -24994,21 +25119,21 @@
         <v>174</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I533" s="1" t="s">
-        <v>2424</v>
+        <v>2434</v>
       </c>
       <c r="L533" s="1" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="534" ht="16.5" customHeight="1">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" ht="16.5" customHeight="1">
       <c r="A534" s="1" t="s">
-        <v>2426</v>
+        <v>2436</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2423</v>
+        <v>2433</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>119</v>
@@ -25017,21 +25142,21 @@
         <v>16</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>2427</v>
+        <v>2437</v>
       </c>
       <c r="G534" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="535" ht="16.5" customHeight="1">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" ht="16.5" customHeight="1">
       <c r="A535" s="1" t="s">
-        <v>2429</v>
+        <v>2439</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>234</v>
@@ -25049,18 +25174,18 @@
         <v>18</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I535" s="1" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="536" ht="16.5" customHeight="1">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" ht="16.5" customHeight="1">
       <c r="A536" s="1" t="s">
-        <v>2431</v>
+        <v>2441</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>2432</v>
+        <v>2442</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>15</v>
@@ -25075,27 +25200,27 @@
         <v>174</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I536" s="1" t="s">
-        <v>2433</v>
+        <v>2443</v>
       </c>
       <c r="J536" s="1" t="s">
-        <v>2434</v>
+        <v>2444</v>
       </c>
       <c r="K536" s="1" t="s">
-        <v>2435</v>
+        <v>2445</v>
       </c>
       <c r="L536" s="1" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="537" ht="16.5" customHeight="1">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" ht="16.5" customHeight="1">
       <c r="A537" s="1" t="s">
-        <v>2437</v>
+        <v>2447</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>2438</v>
+        <v>2448</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>119</v>
@@ -25110,21 +25235,21 @@
         <v>18</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I537" s="1" t="s">
-        <v>2439</v>
+        <v>2449</v>
       </c>
       <c r="L537" s="1" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="538" ht="16.5" customHeight="1">
+    <row r="538" spans="1:13" ht="16.5" customHeight="1">
       <c r="A538" s="1" t="s">
-        <v>2440</v>
+        <v>2450</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>2441</v>
+        <v>2451</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>119</v>
@@ -25139,30 +25264,30 @@
         <v>174</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I538" s="1" t="s">
-        <v>2442</v>
+        <v>2452</v>
       </c>
       <c r="J538" s="1" t="s">
-        <v>2443</v>
+        <v>2453</v>
       </c>
       <c r="K538" s="1" t="s">
-        <v>2444</v>
+        <v>2454</v>
       </c>
       <c r="L538" s="1" t="s">
-        <v>2445</v>
+        <v>2455</v>
       </c>
       <c r="M538" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="539" ht="16.5" customHeight="1">
+    <row r="539" spans="1:13" ht="16.5" customHeight="1">
       <c r="A539" s="1" t="s">
-        <v>2425</v>
+        <v>2435</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>2438</v>
+        <v>2448</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>119</v>
@@ -25177,27 +25302,27 @@
         <v>174</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>2446</v>
+        <v>2456</v>
       </c>
       <c r="J539" s="1" t="s">
-        <v>2447</v>
+        <v>2457</v>
       </c>
       <c r="K539" s="1" t="s">
-        <v>2448</v>
+        <v>2458</v>
       </c>
       <c r="L539" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="540" ht="16.5" customHeight="1">
+    <row r="540" spans="1:13" ht="16.5" customHeight="1">
       <c r="A540" s="1" t="s">
-        <v>2449</v>
+        <v>2459</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2450</v>
+        <v>2460</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>119</v>
@@ -25206,36 +25331,36 @@
         <v>16</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>2451</v>
+        <v>2461</v>
       </c>
       <c r="G540" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>2452</v>
+        <v>2462</v>
       </c>
       <c r="J540" s="1" t="s">
-        <v>2443</v>
+        <v>2453</v>
       </c>
       <c r="K540" s="1" t="s">
-        <v>2453</v>
+        <v>2463</v>
       </c>
       <c r="L540" s="1" t="s">
-        <v>2454</v>
+        <v>2464</v>
       </c>
       <c r="M540" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="541" ht="16.5" customHeight="1">
+    <row r="541" spans="1:13" ht="16.5" customHeight="1">
       <c r="A541" s="1" t="s">
-        <v>2455</v>
+        <v>2465</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>2456</v>
+        <v>2466</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>119</v>
@@ -25250,24 +25375,24 @@
         <v>18</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>2457</v>
+        <v>2467</v>
       </c>
       <c r="J541" s="1" t="s">
-        <v>2458</v>
+        <v>2468</v>
       </c>
       <c r="K541" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="L541" s="1" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="542" ht="16.5" customHeight="1">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" ht="16.5" customHeight="1">
       <c r="A542" s="1" t="s">
-        <v>2460</v>
+        <v>2470</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>234</v>
@@ -25285,10 +25410,10 @@
         <v>18</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I542" s="1" t="s">
-        <v>2461</v>
+        <v>2471</v>
       </c>
       <c r="J542" s="1" t="s">
         <v>290</v>
@@ -25297,12 +25422,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="543" ht="16.5" customHeight="1">
+    <row r="543" spans="1:13" ht="16.5" customHeight="1">
       <c r="A543" s="1" t="s">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>2463</v>
+        <v>2473</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>119</v>
@@ -25311,33 +25436,33 @@
         <v>37</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="G543" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I543" s="1" t="s">
-        <v>2465</v>
+        <v>2475</v>
       </c>
       <c r="J543" s="1" t="s">
-        <v>2466</v>
+        <v>2476</v>
       </c>
       <c r="K543" s="1" t="s">
-        <v>2467</v>
+        <v>2477</v>
       </c>
       <c r="L543" s="1" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="544" ht="16.5" customHeight="1">
+    <row r="544" spans="1:13" ht="16.5" customHeight="1">
       <c r="A544" s="1" t="s">
-        <v>2468</v>
+        <v>2478</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2469</v>
+        <v>2479</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>119</v>
@@ -25352,24 +25477,24 @@
         <v>174</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I544" s="1" t="s">
-        <v>2470</v>
+        <v>2480</v>
       </c>
       <c r="J544" s="1" t="s">
-        <v>2471</v>
+        <v>2481</v>
       </c>
       <c r="K544" s="1" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="545" ht="16.5" customHeight="1">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" ht="16.5" customHeight="1">
       <c r="A545" s="1" t="s">
-        <v>2473</v>
+        <v>2483</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>2469</v>
+        <v>2479</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>119</v>
@@ -25384,18 +25509,18 @@
         <v>174</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I545" s="1" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="546" ht="16.5" customHeight="1">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" ht="16.5" customHeight="1">
       <c r="A546" s="1" t="s">
-        <v>2475</v>
+        <v>2485</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>2476</v>
+        <v>2486</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>119</v>
@@ -25410,18 +25535,18 @@
         <v>174</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="547" ht="16.5" customHeight="1">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" ht="16.5" customHeight="1">
       <c r="A547" s="1" t="s">
-        <v>2478</v>
+        <v>2488</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>2479</v>
+        <v>2489</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>119</v>
@@ -25430,33 +25555,33 @@
         <v>37</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="G547" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>2481</v>
+        <v>2491</v>
       </c>
       <c r="J547" s="1" t="s">
         <v>977</v>
       </c>
       <c r="K547" s="1" t="s">
-        <v>2482</v>
+        <v>2492</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="548" ht="16.5" customHeight="1">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" ht="16.5" customHeight="1">
       <c r="A548" s="1" t="s">
-        <v>2484</v>
+        <v>2494</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>2485</v>
+        <v>2495</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>119</v>
@@ -25471,24 +25596,24 @@
         <v>174</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>2486</v>
+        <v>2496</v>
       </c>
       <c r="J548" s="1" t="s">
-        <v>2487</v>
+        <v>2497</v>
       </c>
       <c r="K548" s="1" t="s">
         <v>989</v>
       </c>
       <c r="L548" s="1" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="549" ht="16.5" customHeight="1">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" ht="16.5" customHeight="1">
       <c r="A549" s="1" t="s">
-        <v>2489</v>
+        <v>2499</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>234</v>
@@ -25506,10 +25631,10 @@
         <v>18</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>2490</v>
+        <v>2500</v>
       </c>
       <c r="J549" s="1" t="s">
         <v>1904</v>
@@ -25518,12 +25643,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="550" ht="16.5" customHeight="1">
+    <row r="550" spans="1:13" ht="16.5" customHeight="1">
       <c r="A550" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>2476</v>
+        <v>2486</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>119</v>
@@ -25538,27 +25663,27 @@
         <v>174</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>2491</v>
+        <v>2501</v>
       </c>
       <c r="J550" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="K550" s="1" t="s">
-        <v>2492</v>
+        <v>2502</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="551" ht="16.5" customHeight="1">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" ht="16.5" customHeight="1">
       <c r="A551" s="1" t="s">
-        <v>2494</v>
+        <v>2504</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>2495</v>
+        <v>2505</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>119</v>
@@ -25573,21 +25698,21 @@
         <v>174</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>2496</v>
+        <v>2506</v>
       </c>
       <c r="L551" s="1" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="552" ht="16.5" customHeight="1">
+    <row r="552" spans="1:13" ht="16.5" customHeight="1">
       <c r="A552" s="1" t="s">
-        <v>2497</v>
+        <v>2507</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>2498</v>
+        <v>2508</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>119</v>
@@ -25602,24 +25727,24 @@
         <v>174</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>2499</v>
+        <v>2509</v>
       </c>
       <c r="J552" s="1" t="s">
         <v>2248</v>
       </c>
       <c r="K552" s="1" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="553" ht="16.5" customHeight="1">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" ht="16.5" customHeight="1">
       <c r="A553" s="1" t="s">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>2502</v>
+        <v>2512</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>119</v>
@@ -25628,27 +25753,27 @@
         <v>16</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>2503</v>
+        <v>2513</v>
       </c>
       <c r="G553" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>2504</v>
+        <v>2514</v>
       </c>
       <c r="L553" s="1" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="554" ht="16.5" customHeight="1">
+    <row r="554" spans="1:13" ht="16.5" customHeight="1">
       <c r="A554" s="1" t="s">
         <v>636</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>2505</v>
+        <v>2515</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>119</v>
@@ -25663,13 +25788,13 @@
         <v>174</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>2506</v>
+        <v>2516</v>
       </c>
       <c r="J554" s="1" t="s">
-        <v>2507</v>
+        <v>2517</v>
       </c>
       <c r="K554" s="1" t="s">
         <v>1339</v>
@@ -25678,12 +25803,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="555" ht="16.5" customHeight="1">
+    <row r="555" spans="1:13" ht="16.5" customHeight="1">
       <c r="A555" s="1" t="s">
         <v>1645</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>2508</v>
+        <v>2518</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>119</v>
@@ -25698,24 +25823,24 @@
         <v>174</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>2509</v>
+        <v>2519</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>2510</v>
+        <v>2520</v>
       </c>
       <c r="K555" s="1" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="556" ht="16.5" customHeight="1">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" ht="16.5" customHeight="1">
       <c r="A556" s="1" t="s">
-        <v>2512</v>
+        <v>2522</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>2513</v>
+        <v>2523</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>119</v>
@@ -25730,18 +25855,18 @@
         <v>174</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>2514</v>
+        <v>2524</v>
       </c>
       <c r="M556" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="557" ht="16.5" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" ht="16.5" customHeight="1">
       <c r="A557" s="1" t="s">
-        <v>2515</v>
+        <v>2525</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>346</v>
@@ -25759,10 +25884,10 @@
         <v>174</v>
       </c>
       <c r="H557" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>2516</v>
+        <v>2526</v>
       </c>
       <c r="J557" s="1" t="s">
         <v>1663</v>
@@ -25771,9 +25896,9 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="558" ht="16.5" customHeight="1">
+    <row r="558" spans="1:13" ht="16.5" customHeight="1">
       <c r="A558" s="1" t="s">
-        <v>2517</v>
+        <v>2527</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>390</v>
@@ -25791,27 +25916,27 @@
         <v>174</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>2518</v>
+        <v>2528</v>
       </c>
       <c r="J558" s="1" t="s">
         <v>371</v>
       </c>
       <c r="K558" s="1" t="s">
-        <v>2511</v>
+        <v>2521</v>
       </c>
       <c r="L558" s="1" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="559" ht="16.5" customHeight="1">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" ht="16.5" customHeight="1">
       <c r="A559" s="1" t="s">
-        <v>2520</v>
+        <v>2530</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2521</v>
+        <v>2531</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>119</v>
@@ -25826,10 +25951,10 @@
         <v>174</v>
       </c>
       <c r="H559" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>2522</v>
+        <v>2532</v>
       </c>
       <c r="J559" s="1" t="s">
         <v>1374</v>
@@ -25838,7 +25963,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="560" ht="16.5" customHeight="1">
+    <row r="560" spans="1:13" ht="16.5" customHeight="1">
       <c r="A560" s="1" t="s">
         <v>747</v>
       </c>
@@ -25858,21 +25983,21 @@
         <v>174</v>
       </c>
       <c r="H560" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I560" s="1" t="s">
-        <v>2523</v>
+        <v>2533</v>
       </c>
       <c r="J560" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="K560" s="1" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="561" ht="16.5" customHeight="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" ht="16.5" customHeight="1">
       <c r="A561" s="1" t="s">
-        <v>2525</v>
+        <v>2535</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>368</v>
@@ -25890,27 +26015,27 @@
         <v>174</v>
       </c>
       <c r="H561" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I561" s="1" t="s">
-        <v>2526</v>
+        <v>2536</v>
       </c>
       <c r="J561" s="1" t="s">
-        <v>2527</v>
+        <v>2537</v>
       </c>
       <c r="K561" s="1" t="s">
         <v>377</v>
       </c>
       <c r="L561" s="1" t="s">
-        <v>2528</v>
-      </c>
-    </row>
-    <row r="562" ht="16.5" customHeight="1">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" ht="16.5" customHeight="1">
       <c r="A562" s="1" t="s">
-        <v>2529</v>
+        <v>2539</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>2530</v>
+        <v>2540</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>119</v>
@@ -25925,13 +26050,13 @@
         <v>174</v>
       </c>
       <c r="H562" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I562" s="1" t="s">
-        <v>2531</v>
+        <v>2541</v>
       </c>
       <c r="J562" s="1" t="s">
-        <v>2532</v>
+        <v>2542</v>
       </c>
       <c r="K562" s="1" t="s">
         <v>401</v>
@@ -25940,9 +26065,9 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="563" ht="16.5" customHeight="1">
+    <row r="563" spans="1:12" ht="16.5" customHeight="1">
       <c r="A563" s="1" t="s">
-        <v>2533</v>
+        <v>2543</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>390</v>
@@ -25960,13 +26085,13 @@
         <v>18</v>
       </c>
       <c r="H563" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I563" s="1" t="s">
-        <v>2534</v>
+        <v>2544</v>
       </c>
       <c r="J563" s="1" t="s">
-        <v>2535</v>
+        <v>2545</v>
       </c>
       <c r="K563" s="1" t="s">
         <v>382</v>
@@ -25975,12 +26100,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="564" ht="16.5" customHeight="1">
+    <row r="564" spans="1:12" ht="16.5" customHeight="1">
       <c r="A564" s="1" t="s">
-        <v>2536</v>
+        <v>2546</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2537</v>
+        <v>2547</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>119</v>
@@ -25995,15 +26120,15 @@
         <v>174</v>
       </c>
       <c r="H564" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I564" s="1" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="565" ht="16.5" customHeight="1">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" ht="16.5" customHeight="1">
       <c r="A565" s="1" t="s">
-        <v>2539</v>
+        <v>2549</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>413</v>
@@ -26021,21 +26146,21 @@
         <v>174</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I565" s="1" t="s">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="L565" s="1" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="566" ht="16.5" customHeight="1">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" ht="16.5" customHeight="1">
       <c r="A566" s="1" t="s">
         <v>748</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>2542</v>
+        <v>2552</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>119</v>
@@ -26050,27 +26175,27 @@
         <v>174</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>2543</v>
+        <v>2553</v>
       </c>
       <c r="J566" s="1" t="s">
         <v>753</v>
       </c>
       <c r="K566" s="1" t="s">
-        <v>2544</v>
+        <v>2554</v>
       </c>
       <c r="L566" s="1" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="567" ht="16.5" customHeight="1">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" ht="16.5" customHeight="1">
       <c r="A567" s="1" t="s">
-        <v>2546</v>
+        <v>2556</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>2547</v>
+        <v>2557</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>119</v>
@@ -26079,16 +26204,16 @@
         <v>37</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>2548</v>
+        <v>2558</v>
       </c>
       <c r="G567" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>2549</v>
+        <v>2559</v>
       </c>
       <c r="J567" s="1" t="s">
         <v>1974</v>
@@ -26097,15 +26222,15 @@
         <v>752</v>
       </c>
       <c r="L567" s="1" t="s">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="568" ht="16.5" customHeight="1">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" ht="16.5" customHeight="1">
       <c r="A568" s="1" t="s">
-        <v>2550</v>
+        <v>2560</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>2551</v>
+        <v>2561</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>119</v>
@@ -26120,21 +26245,21 @@
         <v>174</v>
       </c>
       <c r="H568" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>2552</v>
+        <v>2562</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>2553</v>
+        <v>2563</v>
       </c>
       <c r="K568" s="1" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="569" ht="16.5" customHeight="1">
+    <row r="569" spans="1:12" ht="16.5" customHeight="1">
       <c r="A569" s="1" t="s">
-        <v>2554</v>
+        <v>2564</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>1937</v>
@@ -26152,21 +26277,21 @@
         <v>174</v>
       </c>
       <c r="H569" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I569" s="1" t="s">
-        <v>2555</v>
+        <v>2565</v>
       </c>
       <c r="L569" s="1" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="570" ht="16.5" customHeight="1">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" ht="16.5" customHeight="1">
       <c r="A570" s="1" t="s">
-        <v>2556</v>
+        <v>2566</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>119</v>
@@ -26181,24 +26306,24 @@
         <v>174</v>
       </c>
       <c r="H570" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I570" s="1" t="s">
-        <v>2558</v>
+        <v>2568</v>
       </c>
       <c r="J570" s="1" t="s">
-        <v>2559</v>
+        <v>2569</v>
       </c>
       <c r="K570" s="1" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="571" ht="16.5" customHeight="1">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" ht="16.5" customHeight="1">
       <c r="A571" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>2561</v>
+        <v>2571</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>119</v>
@@ -26213,27 +26338,27 @@
         <v>174</v>
       </c>
       <c r="H571" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I571" s="1" t="s">
-        <v>2562</v>
+        <v>2572</v>
       </c>
       <c r="J571" s="1" t="s">
-        <v>2563</v>
+        <v>2573</v>
       </c>
       <c r="K571" s="1" t="s">
-        <v>2564</v>
+        <v>2574</v>
       </c>
       <c r="L571" s="1" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="572" ht="16.5" customHeight="1">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" ht="16.5" customHeight="1">
       <c r="A572" s="1" t="s">
-        <v>2566</v>
+        <v>2576</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>2567</v>
+        <v>2577</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>119</v>
@@ -26248,18 +26373,18 @@
         <v>174</v>
       </c>
       <c r="H572" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I572" s="1" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="573" ht="16.5" customHeight="1">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" ht="16.5" customHeight="1">
       <c r="A573" s="1" t="s">
-        <v>2569</v>
+        <v>2579</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>2570</v>
+        <v>2580</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>119</v>
@@ -26268,56 +26393,56 @@
         <v>16</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>2571</v>
+        <v>2581</v>
       </c>
       <c r="G573" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H573" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I573" s="1" t="s">
-        <v>2572</v>
+        <v>2582</v>
       </c>
       <c r="J573" s="1" t="s">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="K573" s="1" t="s">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="574" ht="16.5" customHeight="1">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" ht="16.5" customHeight="1">
       <c r="A574" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A575" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="C574" s="1" t="s">
-        <v>2576</v>
-      </c>
-      <c r="D574" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E574" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F574" s="1" t="s">
-        <v>2577</v>
-      </c>
-      <c r="G574" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H574" s="1" t="s">
-        <v>2337</v>
-      </c>
-      <c r="I574" s="1" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="575" ht="16.5" customHeight="1">
-      <c r="A575" s="1" t="s">
-        <v>2565</v>
-      </c>
       <c r="C575" s="1" t="s">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>119</v>
@@ -26326,30 +26451,30 @@
         <v>37</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="G575" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I575" s="1" t="s">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="J575" s="1" t="s">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="K575" s="1" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="576" ht="16.5" customHeight="1">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" ht="16.5" customHeight="1">
       <c r="A576" s="1" t="s">
-        <v>2584</v>
-      </c>
-      <c r="C576" s="3" t="s">
-        <v>2585</v>
+        <v>2594</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>2595</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>119</v>
@@ -26358,24 +26483,24 @@
         <v>37</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="G576" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I576" s="1" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="577" ht="16.5" customHeight="1">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" ht="16.5" customHeight="1">
       <c r="A577" s="1" t="s">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>119</v>
@@ -26390,10 +26515,10 @@
         <v>174</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>2337</v>
+        <v>2347</v>
       </c>
       <c r="I577" s="1" t="s">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="J577" s="1" t="s">
         <v>2335</v>
@@ -26402,21 +26527,21 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="578" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="579" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="580" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="581" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="582" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="583" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="584" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="585" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="586" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="587" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="588" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="589" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="590" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="591" spans="1:11" ht="16.5" customHeight="1"/>
+    <row r="592" spans="1:11" ht="16.5" customHeight="1"/>
     <row r="593" ht="16.5" customHeight="1"/>
     <row r="594" ht="16.5" customHeight="1"/>
     <row r="595" ht="16.5" customHeight="1"/>
@@ -26826,9 +26951,8 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>